--- a/applications/us_states/Phoenix_projections.xlsx
+++ b/applications/us_states/Phoenix_projections.xlsx
@@ -1526,76 +1526,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>25121</v>
+        <v>98095</v>
       </c>
       <c r="B4">
-        <v>11305</v>
+        <v>10415</v>
       </c>
       <c r="C4">
-        <v>74898</v>
+        <v>524193</v>
       </c>
       <c r="D4">
-        <v>0.3350427702107843</v>
+        <v>1.308293394609093</v>
       </c>
       <c r="E4">
-        <v>0.1507795474329027</v>
+        <v>0.1389161269839934</v>
       </c>
       <c r="F4">
-        <v>0.9989114170478207</v>
+        <v>6.991111759236021</v>
       </c>
       <c r="G4">
-        <v>0.06920787068275742</v>
+        <v>0.2706787481973415</v>
       </c>
       <c r="H4">
-        <v>0.04017024890933261</v>
+        <v>0.06545736140418552</v>
       </c>
       <c r="I4">
-        <v>0.1889555022659604</v>
+        <v>1.143851657240469</v>
       </c>
       <c r="J4">
-        <v>0.09489453078342347</v>
+        <v>0.07629183173767677</v>
       </c>
       <c r="K4">
-        <v>0.05842540300239352</v>
+        <v>0.05733992441047165</v>
       </c>
       <c r="L4">
-        <v>0.1830572100463022</v>
+        <v>0.3869617987835781</v>
       </c>
       <c r="M4">
-        <v>46256</v>
+        <v>334819</v>
       </c>
       <c r="N4">
-        <v>5482</v>
+        <v>2130</v>
       </c>
       <c r="O4">
-        <v>41437</v>
+        <v>601900</v>
       </c>
       <c r="P4">
-        <v>0.6169199882937132</v>
+        <v>4.465448334359776</v>
       </c>
       <c r="Q4">
-        <v>0.07312576684774391</v>
+        <v>0.0284202561066493</v>
       </c>
       <c r="R4">
-        <v>0.552650852580208</v>
+        <v>8.0274856483365</v>
       </c>
       <c r="S4">
-        <v>0.07810751111574156</v>
+        <v>0.7486270219478218</v>
       </c>
       <c r="T4">
-        <v>0.015269520097941</v>
+        <v>0.008902666865969248</v>
       </c>
       <c r="U4">
-        <v>0.0835954604658309</v>
+        <v>1.333837506563233</v>
       </c>
       <c r="V4">
-        <v>0.2831271176161836</v>
+        <v>0.4782315644990394</v>
       </c>
       <c r="W4">
-        <v>0.1239473574418124</v>
+        <v>0.05823409879142617</v>
       </c>
       <c r="X4">
-        <v>0.4458283776046012</v>
+        <v>0.6400630351634597</v>
       </c>
     </row>
   </sheetData>
@@ -2463,418 +2463,418 @@
         <v>289</v>
       </c>
       <c r="B3">
-        <v>798</v>
+        <v>1101</v>
       </c>
       <c r="C3">
-        <v>913</v>
+        <v>1019</v>
       </c>
       <c r="D3">
-        <v>928</v>
+        <v>1181</v>
       </c>
       <c r="E3">
-        <v>957</v>
+        <v>1041</v>
       </c>
       <c r="F3">
-        <v>957</v>
+        <v>1036</v>
       </c>
       <c r="G3">
-        <v>978</v>
+        <v>930</v>
       </c>
       <c r="H3">
-        <v>986</v>
+        <v>772</v>
       </c>
       <c r="I3">
-        <v>1089</v>
+        <v>1024</v>
       </c>
       <c r="J3">
-        <v>958</v>
+        <v>906</v>
       </c>
       <c r="K3">
-        <v>953</v>
+        <v>747</v>
       </c>
       <c r="L3">
-        <v>841</v>
+        <v>684</v>
       </c>
       <c r="M3">
-        <v>1010</v>
+        <v>698</v>
       </c>
       <c r="N3">
-        <v>1033</v>
+        <v>708</v>
       </c>
       <c r="O3">
-        <v>1191</v>
+        <v>647</v>
       </c>
       <c r="P3">
-        <v>1130</v>
+        <v>751</v>
       </c>
       <c r="Q3">
-        <v>1116</v>
+        <v>627</v>
       </c>
       <c r="R3">
-        <v>1032</v>
+        <v>549</v>
       </c>
       <c r="S3">
-        <v>1025</v>
+        <v>699</v>
       </c>
       <c r="T3">
-        <v>1030</v>
+        <v>563</v>
       </c>
       <c r="U3">
-        <v>1214</v>
+        <v>522</v>
       </c>
       <c r="V3">
-        <v>1015</v>
+        <v>621</v>
       </c>
       <c r="W3">
-        <v>1075</v>
+        <v>537</v>
       </c>
       <c r="X3">
-        <v>800</v>
+        <v>372</v>
       </c>
       <c r="Y3">
-        <v>1004</v>
+        <v>517</v>
       </c>
       <c r="Z3">
-        <v>793</v>
+        <v>423</v>
       </c>
       <c r="AA3">
-        <v>755</v>
+        <v>405</v>
       </c>
       <c r="AB3">
-        <v>942</v>
+        <v>449</v>
       </c>
       <c r="AC3">
-        <v>684</v>
+        <v>412</v>
       </c>
       <c r="AD3">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="AE3">
-        <v>682</v>
+        <v>319</v>
       </c>
       <c r="AF3">
-        <v>643</v>
+        <v>415</v>
       </c>
       <c r="AG3">
-        <v>656</v>
+        <v>580</v>
       </c>
       <c r="AH3">
-        <v>790</v>
+        <v>666</v>
       </c>
       <c r="AI3">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="AJ3">
-        <v>581</v>
+        <v>494</v>
       </c>
       <c r="AK3">
-        <v>410</v>
+        <v>671</v>
       </c>
       <c r="AL3">
-        <v>554</v>
+        <v>730</v>
       </c>
       <c r="AM3">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AN3">
-        <v>374</v>
+        <v>834</v>
       </c>
       <c r="AO3">
-        <v>521</v>
+        <v>626</v>
       </c>
       <c r="AP3">
-        <v>496</v>
+        <v>715</v>
       </c>
       <c r="AQ3">
-        <v>410</v>
+        <v>1037</v>
       </c>
       <c r="AR3">
-        <v>386</v>
+        <v>784</v>
       </c>
       <c r="AS3">
-        <v>196</v>
+        <v>889</v>
       </c>
       <c r="AT3">
-        <v>321</v>
+        <v>884</v>
       </c>
       <c r="AU3">
-        <v>314</v>
+        <v>952</v>
       </c>
       <c r="AV3">
-        <v>444</v>
+        <v>853</v>
       </c>
       <c r="AW3">
-        <v>407</v>
+        <v>1157</v>
       </c>
       <c r="AX3">
-        <v>229</v>
+        <v>1178</v>
       </c>
       <c r="AY3">
-        <v>272</v>
+        <v>1329</v>
       </c>
       <c r="AZ3">
-        <v>433</v>
+        <v>1260</v>
       </c>
       <c r="BA3">
-        <v>253</v>
+        <v>1238</v>
       </c>
       <c r="BB3">
-        <v>246</v>
+        <v>1246</v>
       </c>
       <c r="BC3">
-        <v>295</v>
+        <v>1337</v>
       </c>
       <c r="BD3">
-        <v>276</v>
+        <v>1408</v>
       </c>
       <c r="BE3">
-        <v>366</v>
+        <v>1317</v>
       </c>
       <c r="BF3">
-        <v>207</v>
+        <v>1460</v>
       </c>
       <c r="BG3">
-        <v>187</v>
+        <v>1412</v>
       </c>
       <c r="BH3">
-        <v>279</v>
+        <v>1557</v>
       </c>
       <c r="BI3">
-        <v>177</v>
+        <v>1357</v>
       </c>
       <c r="BJ3">
-        <v>156</v>
+        <v>1516</v>
       </c>
       <c r="BK3">
-        <v>283</v>
+        <v>1579</v>
       </c>
       <c r="BL3">
-        <v>244</v>
+        <v>1862</v>
       </c>
       <c r="BM3">
-        <v>294</v>
+        <v>1697</v>
       </c>
       <c r="BN3">
-        <v>143</v>
+        <v>1848</v>
       </c>
       <c r="BO3">
-        <v>238</v>
+        <v>1890</v>
       </c>
       <c r="BP3">
-        <v>184</v>
+        <v>2039</v>
       </c>
       <c r="BQ3">
-        <v>162</v>
+        <v>1999</v>
       </c>
       <c r="BR3">
-        <v>268</v>
+        <v>1893</v>
       </c>
       <c r="BS3">
-        <v>229</v>
+        <v>1831</v>
       </c>
       <c r="BT3">
-        <v>223</v>
+        <v>2099</v>
       </c>
       <c r="BU3">
-        <v>334</v>
+        <v>2255</v>
       </c>
       <c r="BV3">
-        <v>187</v>
+        <v>1836</v>
       </c>
       <c r="BW3">
-        <v>188</v>
+        <v>2001</v>
       </c>
       <c r="BX3">
-        <v>214</v>
+        <v>1985</v>
       </c>
       <c r="BY3">
-        <v>222</v>
+        <v>2161</v>
       </c>
       <c r="BZ3">
-        <v>282</v>
+        <v>2227</v>
       </c>
       <c r="CA3">
-        <v>184</v>
+        <v>2227</v>
       </c>
       <c r="CB3">
-        <v>193</v>
+        <v>2061</v>
       </c>
       <c r="CC3">
-        <v>247</v>
+        <v>2369</v>
       </c>
       <c r="CD3">
-        <v>177</v>
+        <v>2985</v>
       </c>
       <c r="CE3">
-        <v>241</v>
+        <v>2708</v>
       </c>
       <c r="CF3">
-        <v>279</v>
+        <v>3451</v>
       </c>
       <c r="CG3">
-        <v>333</v>
+        <v>3141</v>
       </c>
       <c r="CH3">
-        <v>280</v>
+        <v>3146</v>
       </c>
       <c r="CI3">
-        <v>248</v>
+        <v>3387</v>
       </c>
       <c r="CJ3">
-        <v>298</v>
+        <v>3573</v>
       </c>
       <c r="CK3">
-        <v>352</v>
+        <v>3769</v>
       </c>
       <c r="CL3">
-        <v>265</v>
+        <v>3901</v>
       </c>
       <c r="CM3">
-        <v>373</v>
+        <v>4213</v>
       </c>
       <c r="CN3">
-        <v>358</v>
+        <v>3682</v>
       </c>
       <c r="CO3">
-        <v>350</v>
+        <v>3996</v>
       </c>
       <c r="CP3">
-        <v>320</v>
+        <v>4159</v>
       </c>
       <c r="CQ3">
-        <v>360</v>
+        <v>4123</v>
       </c>
       <c r="CR3">
-        <v>271</v>
+        <v>4018</v>
       </c>
       <c r="CS3">
-        <v>238</v>
+        <v>3657</v>
       </c>
       <c r="CT3">
-        <v>311</v>
+        <v>4003</v>
       </c>
       <c r="CU3">
-        <v>395</v>
+        <v>5033</v>
       </c>
       <c r="CV3">
-        <v>184</v>
+        <v>4954</v>
       </c>
       <c r="CW3">
-        <v>360</v>
+        <v>4196</v>
       </c>
       <c r="CX3">
-        <v>272</v>
+        <v>4577</v>
       </c>
       <c r="CY3">
-        <v>223</v>
+        <v>4285</v>
       </c>
       <c r="CZ3">
-        <v>401</v>
+        <v>4313</v>
       </c>
       <c r="DA3">
-        <v>317</v>
+        <v>4484</v>
       </c>
       <c r="DB3">
-        <v>281</v>
+        <v>4865</v>
       </c>
       <c r="DC3">
-        <v>245</v>
+        <v>4668</v>
       </c>
       <c r="DD3">
-        <v>122</v>
+        <v>4865</v>
       </c>
       <c r="DE3">
-        <v>317</v>
+        <v>4862</v>
       </c>
       <c r="DF3">
-        <v>391</v>
+        <v>4963</v>
       </c>
       <c r="DG3">
-        <v>232</v>
+        <v>4376</v>
       </c>
       <c r="DH3">
-        <v>254</v>
+        <v>4523</v>
       </c>
       <c r="DI3">
-        <v>205</v>
+        <v>3740</v>
       </c>
       <c r="DJ3">
-        <v>367</v>
+        <v>5036</v>
       </c>
       <c r="DK3">
-        <v>285</v>
+        <v>4449</v>
       </c>
       <c r="DL3">
-        <v>236</v>
+        <v>4058</v>
       </c>
       <c r="DM3">
-        <v>196</v>
+        <v>4327</v>
       </c>
       <c r="DN3">
-        <v>272</v>
+        <v>4083</v>
       </c>
       <c r="DO3">
-        <v>251</v>
+        <v>4107</v>
       </c>
       <c r="DP3">
-        <v>141</v>
+        <v>4449</v>
       </c>
       <c r="DQ3">
-        <v>190</v>
+        <v>4498</v>
       </c>
       <c r="DR3">
-        <v>205</v>
+        <v>3960</v>
       </c>
       <c r="DS3">
-        <v>221</v>
+        <v>3863</v>
       </c>
       <c r="DT3">
-        <v>196</v>
+        <v>3594</v>
       </c>
       <c r="DU3">
-        <v>132</v>
+        <v>3471</v>
       </c>
       <c r="DV3">
-        <v>242</v>
+        <v>3789</v>
       </c>
       <c r="DW3">
-        <v>156</v>
+        <v>3985</v>
       </c>
       <c r="DX3">
-        <v>260</v>
+        <v>3496</v>
       </c>
       <c r="DY3">
-        <v>147</v>
+        <v>3031</v>
       </c>
       <c r="DZ3">
-        <v>165</v>
+        <v>3471</v>
       </c>
       <c r="EA3">
-        <v>110</v>
+        <v>2469</v>
       </c>
       <c r="EB3">
-        <v>168</v>
+        <v>3154</v>
       </c>
       <c r="EC3">
-        <v>107</v>
+        <v>2493</v>
       </c>
       <c r="ED3">
-        <v>181</v>
+        <v>3325</v>
       </c>
       <c r="EE3">
-        <v>73</v>
+        <v>2542</v>
       </c>
       <c r="EF3">
-        <v>119</v>
+        <v>2860</v>
       </c>
       <c r="EG3">
-        <v>104</v>
+        <v>2493</v>
       </c>
       <c r="EH3">
-        <v>153</v>
+        <v>3105</v>
       </c>
       <c r="EI3">
-        <v>150</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -2882,418 +2882,418 @@
         <v>290</v>
       </c>
       <c r="B4">
-        <v>798</v>
+        <v>1101</v>
       </c>
       <c r="C4">
-        <v>913</v>
+        <v>1019</v>
       </c>
       <c r="D4">
-        <v>928</v>
+        <v>1181</v>
       </c>
       <c r="E4">
-        <v>957</v>
+        <v>1041</v>
       </c>
       <c r="F4">
-        <v>957</v>
+        <v>1036</v>
       </c>
       <c r="G4">
-        <v>978</v>
+        <v>930</v>
       </c>
       <c r="H4">
-        <v>986</v>
+        <v>772</v>
       </c>
       <c r="I4">
-        <v>1089</v>
+        <v>1024</v>
       </c>
       <c r="J4">
-        <v>958</v>
+        <v>906</v>
       </c>
       <c r="K4">
-        <v>953</v>
+        <v>747</v>
       </c>
       <c r="L4">
-        <v>841</v>
+        <v>684</v>
       </c>
       <c r="M4">
-        <v>1010</v>
+        <v>698</v>
       </c>
       <c r="N4">
-        <v>1033</v>
+        <v>708</v>
       </c>
       <c r="O4">
-        <v>1191</v>
+        <v>647</v>
       </c>
       <c r="P4">
-        <v>1130</v>
+        <v>751</v>
       </c>
       <c r="Q4">
-        <v>1116</v>
+        <v>627</v>
       </c>
       <c r="R4">
-        <v>1032</v>
+        <v>549</v>
       </c>
       <c r="S4">
-        <v>1025</v>
+        <v>699</v>
       </c>
       <c r="T4">
-        <v>1030</v>
+        <v>563</v>
       </c>
       <c r="U4">
-        <v>1214</v>
+        <v>522</v>
       </c>
       <c r="V4">
-        <v>1015</v>
+        <v>621</v>
       </c>
       <c r="W4">
-        <v>1075</v>
+        <v>537</v>
       </c>
       <c r="X4">
-        <v>800</v>
+        <v>372</v>
       </c>
       <c r="Y4">
-        <v>1004</v>
+        <v>517</v>
       </c>
       <c r="Z4">
-        <v>793</v>
+        <v>423</v>
       </c>
       <c r="AA4">
-        <v>755</v>
+        <v>405</v>
       </c>
       <c r="AB4">
-        <v>942</v>
+        <v>449</v>
       </c>
       <c r="AC4">
-        <v>684</v>
+        <v>412</v>
       </c>
       <c r="AD4">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="AE4">
-        <v>682</v>
+        <v>319</v>
       </c>
       <c r="AF4">
-        <v>643</v>
+        <v>415</v>
       </c>
       <c r="AG4">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="AH4">
-        <v>955</v>
+        <v>772</v>
       </c>
       <c r="AI4">
-        <v>814</v>
+        <v>712</v>
       </c>
       <c r="AJ4">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="AK4">
-        <v>734</v>
+        <v>591</v>
       </c>
       <c r="AL4">
-        <v>791</v>
+        <v>650</v>
       </c>
       <c r="AM4">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="AN4">
-        <v>579</v>
+        <v>810</v>
       </c>
       <c r="AO4">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="AP4">
-        <v>721</v>
+        <v>901</v>
       </c>
       <c r="AQ4">
-        <v>454</v>
+        <v>880</v>
       </c>
       <c r="AR4">
-        <v>578</v>
+        <v>921</v>
       </c>
       <c r="AS4">
-        <v>618</v>
+        <v>1059</v>
       </c>
       <c r="AT4">
-        <v>532</v>
+        <v>1092</v>
       </c>
       <c r="AU4">
-        <v>567</v>
+        <v>1400</v>
       </c>
       <c r="AV4">
-        <v>552</v>
+        <v>1457</v>
       </c>
       <c r="AW4">
-        <v>469</v>
+        <v>1439</v>
       </c>
       <c r="AX4">
-        <v>757</v>
+        <v>1710</v>
       </c>
       <c r="AY4">
-        <v>454</v>
+        <v>1371</v>
       </c>
       <c r="AZ4">
-        <v>474</v>
+        <v>1925</v>
       </c>
       <c r="BA4">
-        <v>437</v>
+        <v>1682</v>
       </c>
       <c r="BB4">
-        <v>453</v>
+        <v>1784</v>
       </c>
       <c r="BC4">
-        <v>349</v>
+        <v>1834</v>
       </c>
       <c r="BD4">
-        <v>504</v>
+        <v>1824</v>
       </c>
       <c r="BE4">
-        <v>416</v>
+        <v>2070</v>
       </c>
       <c r="BF4">
-        <v>411</v>
+        <v>2007</v>
       </c>
       <c r="BG4">
-        <v>427</v>
+        <v>1924</v>
       </c>
       <c r="BH4">
-        <v>434</v>
+        <v>1995</v>
       </c>
       <c r="BI4">
-        <v>422</v>
+        <v>2351</v>
       </c>
       <c r="BJ4">
-        <v>474</v>
+        <v>2468</v>
       </c>
       <c r="BK4">
-        <v>432</v>
+        <v>2502</v>
       </c>
       <c r="BL4">
-        <v>421</v>
+        <v>2728</v>
       </c>
       <c r="BM4">
-        <v>408</v>
+        <v>2546</v>
       </c>
       <c r="BN4">
-        <v>425</v>
+        <v>2948</v>
       </c>
       <c r="BO4">
-        <v>422</v>
+        <v>2728</v>
       </c>
       <c r="BP4">
-        <v>360</v>
+        <v>3030</v>
       </c>
       <c r="BQ4">
-        <v>445</v>
+        <v>2893</v>
       </c>
       <c r="BR4">
-        <v>434</v>
+        <v>3053</v>
       </c>
       <c r="BS4">
-        <v>436</v>
+        <v>3201</v>
       </c>
       <c r="BT4">
-        <v>698</v>
+        <v>3343</v>
       </c>
       <c r="BU4">
-        <v>597</v>
+        <v>4125</v>
       </c>
       <c r="BV4">
-        <v>720</v>
+        <v>5269</v>
       </c>
       <c r="BW4">
-        <v>580</v>
+        <v>5130</v>
       </c>
       <c r="BX4">
-        <v>676</v>
+        <v>4623</v>
       </c>
       <c r="BY4">
-        <v>606</v>
+        <v>4603</v>
       </c>
       <c r="BZ4">
-        <v>565</v>
+        <v>4930</v>
       </c>
       <c r="CA4">
-        <v>568</v>
+        <v>4999</v>
       </c>
       <c r="CB4">
-        <v>642</v>
+        <v>6088</v>
       </c>
       <c r="CC4">
-        <v>772</v>
+        <v>5528</v>
       </c>
       <c r="CD4">
-        <v>594</v>
+        <v>5663</v>
       </c>
       <c r="CE4">
-        <v>673</v>
+        <v>5725</v>
       </c>
       <c r="CF4">
-        <v>713</v>
+        <v>5953</v>
       </c>
       <c r="CG4">
-        <v>744</v>
+        <v>7579</v>
       </c>
       <c r="CH4">
-        <v>825</v>
+        <v>7416</v>
       </c>
       <c r="CI4">
-        <v>866</v>
+        <v>7161</v>
       </c>
       <c r="CJ4">
-        <v>849</v>
+        <v>7979</v>
       </c>
       <c r="CK4">
-        <v>887</v>
+        <v>7998</v>
       </c>
       <c r="CL4">
-        <v>902</v>
+        <v>7999</v>
       </c>
       <c r="CM4">
-        <v>1009</v>
+        <v>8008</v>
       </c>
       <c r="CN4">
-        <v>953</v>
+        <v>8308</v>
       </c>
       <c r="CO4">
-        <v>951</v>
+        <v>9005</v>
       </c>
       <c r="CP4">
-        <v>786</v>
+        <v>8432</v>
       </c>
       <c r="CQ4">
-        <v>918</v>
+        <v>9250</v>
       </c>
       <c r="CR4">
-        <v>892</v>
+        <v>8483</v>
       </c>
       <c r="CS4">
-        <v>1003</v>
+        <v>9563</v>
       </c>
       <c r="CT4">
-        <v>969</v>
+        <v>10904</v>
       </c>
       <c r="CU4">
-        <v>909</v>
+        <v>10585</v>
       </c>
       <c r="CV4">
-        <v>847</v>
+        <v>10420</v>
       </c>
       <c r="CW4">
-        <v>963</v>
+        <v>9902</v>
       </c>
       <c r="CX4">
-        <v>1219</v>
+        <v>9853</v>
       </c>
       <c r="CY4">
-        <v>957</v>
+        <v>9608</v>
       </c>
       <c r="CZ4">
-        <v>1124</v>
+        <v>8826</v>
       </c>
       <c r="DA4">
-        <v>1047</v>
+        <v>8166</v>
       </c>
       <c r="DB4">
-        <v>977</v>
+        <v>9682</v>
       </c>
       <c r="DC4">
-        <v>819</v>
+        <v>8924</v>
       </c>
       <c r="DD4">
-        <v>966</v>
+        <v>8850</v>
       </c>
       <c r="DE4">
-        <v>982</v>
+        <v>8215</v>
       </c>
       <c r="DF4">
-        <v>965</v>
+        <v>8361</v>
       </c>
       <c r="DG4">
-        <v>970</v>
+        <v>7897</v>
       </c>
       <c r="DH4">
-        <v>1053</v>
+        <v>8802</v>
       </c>
       <c r="DI4">
-        <v>950</v>
+        <v>7408</v>
       </c>
       <c r="DJ4">
-        <v>874</v>
+        <v>7403</v>
       </c>
       <c r="DK4">
-        <v>995</v>
+        <v>7872</v>
       </c>
       <c r="DL4">
-        <v>1036</v>
+        <v>6914</v>
       </c>
       <c r="DM4">
-        <v>1240</v>
+        <v>6625</v>
       </c>
       <c r="DN4">
-        <v>1306</v>
+        <v>7335</v>
       </c>
       <c r="DO4">
-        <v>1162</v>
+        <v>6356</v>
       </c>
       <c r="DP4">
-        <v>1098</v>
+        <v>7437</v>
       </c>
       <c r="DQ4">
-        <v>1140</v>
+        <v>7236</v>
       </c>
       <c r="DR4">
-        <v>1001</v>
+        <v>7041</v>
       </c>
       <c r="DS4">
-        <v>1331</v>
+        <v>6552</v>
       </c>
       <c r="DT4">
-        <v>1284</v>
+        <v>6919</v>
       </c>
       <c r="DU4">
-        <v>1231</v>
+        <v>6699</v>
       </c>
       <c r="DV4">
-        <v>991</v>
+        <v>5819</v>
       </c>
       <c r="DW4">
-        <v>1100</v>
+        <v>5207</v>
       </c>
       <c r="DX4">
-        <v>1283</v>
+        <v>5354</v>
       </c>
       <c r="DY4">
-        <v>1209</v>
+        <v>5012</v>
       </c>
       <c r="DZ4">
-        <v>1075</v>
+        <v>4792</v>
       </c>
       <c r="EA4">
-        <v>1124</v>
+        <v>5476</v>
       </c>
       <c r="EB4">
-        <v>1002</v>
+        <v>4938</v>
       </c>
       <c r="EC4">
-        <v>844</v>
+        <v>4938</v>
       </c>
       <c r="ED4">
-        <v>978</v>
+        <v>4841</v>
       </c>
       <c r="EE4">
-        <v>953</v>
+        <v>3618</v>
       </c>
       <c r="EF4">
-        <v>562</v>
+        <v>4675</v>
       </c>
       <c r="EG4">
-        <v>684</v>
+        <v>4172</v>
       </c>
       <c r="EH4">
-        <v>855</v>
+        <v>5012</v>
       </c>
       <c r="EI4">
-        <v>562</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="5" spans="1:141">
@@ -3301,418 +3301,418 @@
         <v>291</v>
       </c>
       <c r="B5">
-        <v>1005</v>
+        <v>1959</v>
       </c>
       <c r="C5">
-        <v>1065</v>
+        <v>1607</v>
       </c>
       <c r="D5">
-        <v>1040</v>
+        <v>1684</v>
       </c>
       <c r="E5">
-        <v>1069</v>
+        <v>1706</v>
       </c>
       <c r="F5">
-        <v>1119</v>
+        <v>1540</v>
       </c>
       <c r="G5">
-        <v>1119</v>
+        <v>1631</v>
       </c>
       <c r="H5">
-        <v>1135</v>
+        <v>1751</v>
       </c>
       <c r="I5">
-        <v>1229</v>
+        <v>1521</v>
       </c>
       <c r="J5">
-        <v>1228</v>
+        <v>1796</v>
       </c>
       <c r="K5">
-        <v>1331</v>
+        <v>1742</v>
       </c>
       <c r="L5">
-        <v>1180</v>
+        <v>1820</v>
       </c>
       <c r="M5">
-        <v>1244</v>
+        <v>1788</v>
       </c>
       <c r="N5">
-        <v>1270</v>
+        <v>1758</v>
       </c>
       <c r="O5">
-        <v>1273</v>
+        <v>1711</v>
       </c>
       <c r="P5">
-        <v>1454</v>
+        <v>1838</v>
       </c>
       <c r="Q5">
-        <v>1491</v>
+        <v>1734</v>
       </c>
       <c r="R5">
-        <v>1339</v>
+        <v>2191</v>
       </c>
       <c r="S5">
-        <v>1822</v>
+        <v>1913</v>
       </c>
       <c r="T5">
-        <v>1685</v>
+        <v>2054</v>
       </c>
       <c r="U5">
-        <v>1548</v>
+        <v>2615</v>
       </c>
       <c r="V5">
-        <v>1739</v>
+        <v>2780</v>
       </c>
       <c r="W5">
-        <v>1312</v>
+        <v>2552</v>
       </c>
       <c r="X5">
-        <v>1372</v>
+        <v>2537</v>
       </c>
       <c r="Y5">
-        <v>1215</v>
+        <v>2586</v>
       </c>
       <c r="Z5">
-        <v>1234</v>
+        <v>2950</v>
       </c>
       <c r="AA5">
-        <v>1102</v>
+        <v>2406</v>
       </c>
       <c r="AB5">
-        <v>1449</v>
+        <v>2907</v>
       </c>
       <c r="AC5">
-        <v>1175</v>
+        <v>2767</v>
       </c>
       <c r="AD5">
-        <v>1261</v>
+        <v>3260</v>
       </c>
       <c r="AE5">
-        <v>1140</v>
+        <v>2948</v>
       </c>
       <c r="AF5">
-        <v>1078</v>
+        <v>2950</v>
       </c>
       <c r="AG5">
-        <v>895</v>
+        <v>2882</v>
       </c>
       <c r="AH5">
-        <v>875</v>
+        <v>3458</v>
       </c>
       <c r="AI5">
-        <v>865</v>
+        <v>3395</v>
       </c>
       <c r="AJ5">
-        <v>880</v>
+        <v>3673</v>
       </c>
       <c r="AK5">
-        <v>772</v>
+        <v>3374</v>
       </c>
       <c r="AL5">
-        <v>814</v>
+        <v>3079</v>
       </c>
       <c r="AM5">
-        <v>558</v>
+        <v>4782</v>
       </c>
       <c r="AN5">
-        <v>717</v>
+        <v>4274</v>
       </c>
       <c r="AO5">
-        <v>632</v>
+        <v>4293</v>
       </c>
       <c r="AP5">
-        <v>899</v>
+        <v>5714</v>
       </c>
       <c r="AQ5">
-        <v>810</v>
+        <v>5328</v>
       </c>
       <c r="AR5">
-        <v>678</v>
+        <v>5176</v>
       </c>
       <c r="AS5">
-        <v>578</v>
+        <v>5345</v>
       </c>
       <c r="AT5">
-        <v>542</v>
+        <v>5694</v>
       </c>
       <c r="AU5">
-        <v>692</v>
+        <v>5576</v>
       </c>
       <c r="AV5">
-        <v>658</v>
+        <v>6232</v>
       </c>
       <c r="AW5">
-        <v>721</v>
+        <v>5923</v>
       </c>
       <c r="AX5">
-        <v>677</v>
+        <v>6666</v>
       </c>
       <c r="AY5">
-        <v>708</v>
+        <v>9206</v>
       </c>
       <c r="AZ5">
-        <v>552</v>
+        <v>7982</v>
       </c>
       <c r="BA5">
-        <v>790</v>
+        <v>7313</v>
       </c>
       <c r="BB5">
-        <v>581</v>
+        <v>7638</v>
       </c>
       <c r="BC5">
-        <v>697</v>
+        <v>9147</v>
       </c>
       <c r="BD5">
-        <v>686</v>
+        <v>9373</v>
       </c>
       <c r="BE5">
-        <v>672</v>
+        <v>9192</v>
       </c>
       <c r="BF5">
-        <v>703</v>
+        <v>9926</v>
       </c>
       <c r="BG5">
-        <v>663</v>
+        <v>9139</v>
       </c>
       <c r="BH5">
-        <v>708</v>
+        <v>8499</v>
       </c>
       <c r="BI5">
-        <v>650</v>
+        <v>9319</v>
       </c>
       <c r="BJ5">
-        <v>703</v>
+        <v>8709</v>
       </c>
       <c r="BK5">
-        <v>839</v>
+        <v>8557</v>
       </c>
       <c r="BL5">
-        <v>744</v>
+        <v>8407</v>
       </c>
       <c r="BM5">
-        <v>893</v>
+        <v>9413</v>
       </c>
       <c r="BN5">
-        <v>816</v>
+        <v>8949</v>
       </c>
       <c r="BO5">
-        <v>780</v>
+        <v>8725</v>
       </c>
       <c r="BP5">
-        <v>723</v>
+        <v>7677</v>
       </c>
       <c r="BQ5">
-        <v>996</v>
+        <v>8019</v>
       </c>
       <c r="BR5">
-        <v>795</v>
+        <v>8361</v>
       </c>
       <c r="BS5">
-        <v>953</v>
+        <v>6992</v>
       </c>
       <c r="BT5">
-        <v>948</v>
+        <v>7897</v>
       </c>
       <c r="BU5">
-        <v>885</v>
+        <v>7506</v>
       </c>
       <c r="BV5">
-        <v>1202</v>
+        <v>6723</v>
       </c>
       <c r="BW5">
-        <v>1010</v>
+        <v>6748</v>
       </c>
       <c r="BX5">
-        <v>741</v>
+        <v>5696</v>
       </c>
       <c r="BY5">
-        <v>943</v>
+        <v>6748</v>
       </c>
       <c r="BZ5">
-        <v>912</v>
+        <v>5819</v>
       </c>
       <c r="CA5">
-        <v>793</v>
+        <v>5012</v>
       </c>
       <c r="CB5">
-        <v>842</v>
+        <v>5575</v>
       </c>
       <c r="CC5">
-        <v>595</v>
+        <v>5081</v>
       </c>
       <c r="CD5">
-        <v>821</v>
+        <v>5468</v>
       </c>
       <c r="CE5">
-        <v>503</v>
+        <v>5247</v>
       </c>
       <c r="CF5">
-        <v>893</v>
+        <v>5157</v>
       </c>
       <c r="CG5">
-        <v>627</v>
+        <v>5324</v>
       </c>
       <c r="CH5">
-        <v>1026</v>
+        <v>4924</v>
       </c>
       <c r="CI5">
-        <v>894</v>
+        <v>4401</v>
       </c>
       <c r="CJ5">
-        <v>652</v>
+        <v>4625</v>
       </c>
       <c r="CK5">
-        <v>708</v>
+        <v>4496</v>
       </c>
       <c r="CL5">
-        <v>556</v>
+        <v>4546</v>
       </c>
       <c r="CM5">
-        <v>698</v>
+        <v>4361</v>
       </c>
       <c r="CN5">
-        <v>789</v>
+        <v>5076</v>
       </c>
       <c r="CO5">
-        <v>847</v>
+        <v>5486</v>
       </c>
       <c r="CP5">
-        <v>661</v>
+        <v>4634</v>
       </c>
       <c r="CQ5">
-        <v>514</v>
+        <v>4953</v>
       </c>
       <c r="CR5">
-        <v>732</v>
+        <v>4745</v>
       </c>
       <c r="CS5">
-        <v>629</v>
+        <v>4363</v>
       </c>
       <c r="CT5">
-        <v>826</v>
+        <v>4703</v>
       </c>
       <c r="CU5">
-        <v>633</v>
+        <v>4234</v>
       </c>
       <c r="CV5">
-        <v>471</v>
+        <v>4176</v>
       </c>
       <c r="CW5">
-        <v>733</v>
+        <v>5147</v>
       </c>
       <c r="CX5">
-        <v>619</v>
+        <v>5233</v>
       </c>
       <c r="CY5">
-        <v>699</v>
+        <v>6106</v>
       </c>
       <c r="CZ5">
-        <v>574</v>
+        <v>5894</v>
       </c>
       <c r="DA5">
-        <v>570</v>
+        <v>5859</v>
       </c>
       <c r="DB5">
-        <v>454</v>
+        <v>6213</v>
       </c>
       <c r="DC5">
-        <v>629</v>
+        <v>6265</v>
       </c>
       <c r="DD5">
-        <v>575</v>
+        <v>5925</v>
       </c>
       <c r="DE5">
-        <v>525</v>
+        <v>6587</v>
       </c>
       <c r="DF5">
-        <v>405</v>
+        <v>6653</v>
       </c>
       <c r="DG5">
-        <v>325</v>
+        <v>9421</v>
       </c>
       <c r="DH5">
-        <v>430</v>
+        <v>7580</v>
       </c>
       <c r="DI5">
-        <v>299</v>
+        <v>8243</v>
       </c>
       <c r="DJ5">
-        <v>534</v>
+        <v>9047</v>
       </c>
       <c r="DK5">
-        <v>500</v>
+        <v>10164</v>
       </c>
       <c r="DL5">
-        <v>409</v>
+        <v>9168</v>
       </c>
       <c r="DM5">
-        <v>433</v>
+        <v>9006</v>
       </c>
       <c r="DN5">
-        <v>498</v>
+        <v>12743</v>
       </c>
       <c r="DO5">
-        <v>447</v>
+        <v>11712</v>
       </c>
       <c r="DP5">
-        <v>334</v>
+        <v>11659</v>
       </c>
       <c r="DQ5">
-        <v>403</v>
+        <v>12097</v>
       </c>
       <c r="DR5">
-        <v>381</v>
+        <v>11410</v>
       </c>
       <c r="DS5">
-        <v>355</v>
+        <v>12598</v>
       </c>
       <c r="DT5">
-        <v>351</v>
+        <v>12621</v>
       </c>
       <c r="DU5">
-        <v>342</v>
+        <v>11815</v>
       </c>
       <c r="DV5">
-        <v>366</v>
+        <v>13509</v>
       </c>
       <c r="DW5">
-        <v>418</v>
+        <v>11304</v>
       </c>
       <c r="DX5">
-        <v>311</v>
+        <v>11160</v>
       </c>
       <c r="DY5">
-        <v>292</v>
+        <v>12151</v>
       </c>
       <c r="DZ5">
-        <v>313</v>
+        <v>11408</v>
       </c>
       <c r="EA5">
-        <v>220</v>
+        <v>11326</v>
       </c>
       <c r="EB5">
-        <v>317</v>
+        <v>10648</v>
       </c>
       <c r="EC5">
-        <v>229</v>
+        <v>10776</v>
       </c>
       <c r="ED5">
-        <v>238</v>
+        <v>11124</v>
       </c>
       <c r="EE5">
-        <v>268</v>
+        <v>11533</v>
       </c>
       <c r="EF5">
-        <v>136</v>
+        <v>11994</v>
       </c>
       <c r="EG5">
-        <v>242</v>
+        <v>11091</v>
       </c>
       <c r="EH5">
-        <v>268</v>
+        <v>10889</v>
       </c>
       <c r="EI5">
-        <v>146</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="6" spans="1:141">
@@ -3720,418 +3720,418 @@
         <v>292</v>
       </c>
       <c r="B6">
-        <v>1113</v>
+        <v>2291</v>
       </c>
       <c r="C6">
-        <v>1139</v>
+        <v>1892</v>
       </c>
       <c r="D6">
-        <v>1224</v>
+        <v>2072</v>
       </c>
       <c r="E6">
-        <v>1177</v>
+        <v>1974</v>
       </c>
       <c r="F6">
-        <v>1443</v>
+        <v>2082</v>
       </c>
       <c r="G6">
-        <v>1420</v>
+        <v>1762</v>
       </c>
       <c r="H6">
-        <v>1243</v>
+        <v>1983</v>
       </c>
       <c r="I6">
-        <v>1372</v>
+        <v>2246</v>
       </c>
       <c r="J6">
-        <v>1504</v>
+        <v>2132</v>
       </c>
       <c r="K6">
-        <v>1472</v>
+        <v>2612</v>
       </c>
       <c r="L6">
-        <v>1401</v>
+        <v>2501</v>
       </c>
       <c r="M6">
-        <v>1431</v>
+        <v>2388</v>
       </c>
       <c r="N6">
-        <v>1194</v>
+        <v>2426</v>
       </c>
       <c r="O6">
-        <v>1510</v>
+        <v>2738</v>
       </c>
       <c r="P6">
-        <v>1510</v>
+        <v>3557</v>
       </c>
       <c r="Q6">
-        <v>2461</v>
+        <v>3348</v>
       </c>
       <c r="R6">
-        <v>1828</v>
+        <v>3728</v>
       </c>
       <c r="S6">
-        <v>2025</v>
+        <v>4032</v>
       </c>
       <c r="T6">
-        <v>1841</v>
+        <v>3876</v>
       </c>
       <c r="U6">
-        <v>2120</v>
+        <v>4027</v>
       </c>
       <c r="V6">
-        <v>1836</v>
+        <v>4183</v>
       </c>
       <c r="W6">
-        <v>1891</v>
+        <v>4515</v>
       </c>
       <c r="X6">
-        <v>1580</v>
+        <v>4275</v>
       </c>
       <c r="Y6">
-        <v>1440</v>
+        <v>4118</v>
       </c>
       <c r="Z6">
-        <v>1571</v>
+        <v>4643</v>
       </c>
       <c r="AA6">
-        <v>1587</v>
+        <v>4796</v>
       </c>
       <c r="AB6">
-        <v>1326</v>
+        <v>6629</v>
       </c>
       <c r="AC6">
-        <v>1349</v>
+        <v>6049</v>
       </c>
       <c r="AD6">
-        <v>1478</v>
+        <v>5769</v>
       </c>
       <c r="AE6">
-        <v>1421</v>
+        <v>6039</v>
       </c>
       <c r="AF6">
-        <v>1305</v>
+        <v>6370</v>
       </c>
       <c r="AG6">
-        <v>1008</v>
+        <v>6850</v>
       </c>
       <c r="AH6">
-        <v>1296</v>
+        <v>8035</v>
       </c>
       <c r="AI6">
-        <v>1211</v>
+        <v>8125</v>
       </c>
       <c r="AJ6">
-        <v>1444</v>
+        <v>10582</v>
       </c>
       <c r="AK6">
-        <v>963</v>
+        <v>9713</v>
       </c>
       <c r="AL6">
-        <v>1103</v>
+        <v>9355</v>
       </c>
       <c r="AM6">
-        <v>1525</v>
+        <v>10330</v>
       </c>
       <c r="AN6">
-        <v>1253</v>
+        <v>10718</v>
       </c>
       <c r="AO6">
-        <v>1017</v>
+        <v>10639</v>
       </c>
       <c r="AP6">
-        <v>1121</v>
+        <v>10851</v>
       </c>
       <c r="AQ6">
-        <v>1495</v>
+        <v>13843</v>
       </c>
       <c r="AR6">
-        <v>1360</v>
+        <v>14455</v>
       </c>
       <c r="AS6">
-        <v>1397</v>
+        <v>14356</v>
       </c>
       <c r="AT6">
-        <v>1133</v>
+        <v>14569</v>
       </c>
       <c r="AU6">
-        <v>1142</v>
+        <v>14327</v>
       </c>
       <c r="AV6">
-        <v>1186</v>
+        <v>13887</v>
       </c>
       <c r="AW6">
-        <v>1244</v>
+        <v>13938</v>
       </c>
       <c r="AX6">
-        <v>1212</v>
+        <v>12506</v>
       </c>
       <c r="AY6">
-        <v>1311</v>
+        <v>13171</v>
       </c>
       <c r="AZ6">
-        <v>1306</v>
+        <v>16425</v>
       </c>
       <c r="BA6">
-        <v>1321</v>
+        <v>15827</v>
       </c>
       <c r="BB6">
-        <v>1485</v>
+        <v>14760</v>
       </c>
       <c r="BC6">
-        <v>1444</v>
+        <v>15602</v>
       </c>
       <c r="BD6">
-        <v>1496</v>
+        <v>14131</v>
       </c>
       <c r="BE6">
-        <v>1417</v>
+        <v>14278</v>
       </c>
       <c r="BF6">
-        <v>1425</v>
+        <v>13643</v>
       </c>
       <c r="BG6">
-        <v>1370</v>
+        <v>14156</v>
       </c>
       <c r="BH6">
-        <v>1482</v>
+        <v>13056</v>
       </c>
       <c r="BI6">
-        <v>1571</v>
+        <v>11418</v>
       </c>
       <c r="BJ6">
-        <v>1895</v>
+        <v>10489</v>
       </c>
       <c r="BK6">
-        <v>1772</v>
+        <v>11075</v>
       </c>
       <c r="BL6">
-        <v>1975</v>
+        <v>10244</v>
       </c>
       <c r="BM6">
-        <v>1978</v>
+        <v>10220</v>
       </c>
       <c r="BN6">
-        <v>2002</v>
+        <v>9119</v>
       </c>
       <c r="BO6">
-        <v>2015</v>
+        <v>7921</v>
       </c>
       <c r="BP6">
-        <v>2132</v>
+        <v>8276</v>
       </c>
       <c r="BQ6">
-        <v>2262</v>
+        <v>8658</v>
       </c>
       <c r="BR6">
-        <v>2410</v>
+        <v>7494</v>
       </c>
       <c r="BS6">
-        <v>2262</v>
+        <v>9046</v>
       </c>
       <c r="BT6">
-        <v>2443</v>
+        <v>9050</v>
       </c>
       <c r="BU6">
-        <v>2423</v>
+        <v>11400</v>
       </c>
       <c r="BV6">
-        <v>2548</v>
+        <v>9766</v>
       </c>
       <c r="BW6">
-        <v>2342</v>
+        <v>9895</v>
       </c>
       <c r="BX6">
-        <v>2149</v>
+        <v>9030</v>
       </c>
       <c r="BY6">
-        <v>2191</v>
+        <v>9535</v>
       </c>
       <c r="BZ6">
-        <v>2337</v>
+        <v>9410</v>
       </c>
       <c r="CA6">
-        <v>2038</v>
+        <v>9840</v>
       </c>
       <c r="CB6">
-        <v>2695</v>
+        <v>11665</v>
       </c>
       <c r="CC6">
-        <v>2163</v>
+        <v>12161</v>
       </c>
       <c r="CD6">
-        <v>2253</v>
+        <v>12026</v>
       </c>
       <c r="CE6">
-        <v>2338</v>
+        <v>11888</v>
       </c>
       <c r="CF6">
-        <v>2368</v>
+        <v>11847</v>
       </c>
       <c r="CG6">
-        <v>2259</v>
+        <v>12238</v>
       </c>
       <c r="CH6">
-        <v>2093</v>
+        <v>14972</v>
       </c>
       <c r="CI6">
-        <v>1800</v>
+        <v>15586</v>
       </c>
       <c r="CJ6">
-        <v>2148</v>
+        <v>17596</v>
       </c>
       <c r="CK6">
-        <v>2210</v>
+        <v>17474</v>
       </c>
       <c r="CL6">
-        <v>2053</v>
+        <v>17156</v>
       </c>
       <c r="CM6">
-        <v>2176</v>
+        <v>21746</v>
       </c>
       <c r="CN6">
-        <v>2078</v>
+        <v>20616</v>
       </c>
       <c r="CO6">
-        <v>2127</v>
+        <v>21208</v>
       </c>
       <c r="CP6">
-        <v>2004</v>
+        <v>22584</v>
       </c>
       <c r="CQ6">
-        <v>2029</v>
+        <v>21650</v>
       </c>
       <c r="CR6">
-        <v>2078</v>
+        <v>20124</v>
       </c>
       <c r="CS6">
-        <v>1687</v>
+        <v>19277</v>
       </c>
       <c r="CT6">
-        <v>1907</v>
+        <v>19884</v>
       </c>
       <c r="CU6">
-        <v>2053</v>
+        <v>23342</v>
       </c>
       <c r="CV6">
-        <v>1687</v>
+        <v>21776</v>
       </c>
       <c r="CW6">
-        <v>1344</v>
+        <v>20972</v>
       </c>
       <c r="CX6">
-        <v>1442</v>
+        <v>21674</v>
       </c>
       <c r="CY6">
-        <v>1246</v>
+        <v>25420</v>
       </c>
       <c r="CZ6">
-        <v>1369</v>
+        <v>24338</v>
       </c>
       <c r="DA6">
-        <v>1295</v>
+        <v>22685</v>
       </c>
       <c r="DB6">
-        <v>1100</v>
+        <v>21907</v>
       </c>
       <c r="DC6">
-        <v>1173</v>
+        <v>20366</v>
       </c>
       <c r="DD6">
-        <v>1491</v>
+        <v>20440</v>
       </c>
       <c r="DE6">
-        <v>1075</v>
+        <v>19755</v>
       </c>
       <c r="DF6">
-        <v>1149</v>
+        <v>18141</v>
       </c>
       <c r="DG6">
-        <v>1075</v>
+        <v>18068</v>
       </c>
       <c r="DH6">
-        <v>855</v>
+        <v>15134</v>
       </c>
       <c r="DI6">
-        <v>564</v>
+        <v>14743</v>
       </c>
       <c r="DJ6">
-        <v>684</v>
+        <v>14718</v>
       </c>
       <c r="DK6">
-        <v>986</v>
+        <v>13105</v>
       </c>
       <c r="DL6">
-        <v>586</v>
+        <v>12811</v>
       </c>
       <c r="DM6">
-        <v>782</v>
+        <v>11638</v>
       </c>
       <c r="DN6">
-        <v>586</v>
+        <v>11687</v>
       </c>
       <c r="DO6">
-        <v>635</v>
+        <v>10758</v>
       </c>
       <c r="DP6">
-        <v>684</v>
+        <v>9168</v>
       </c>
       <c r="DQ6">
-        <v>391</v>
+        <v>9413</v>
       </c>
       <c r="DR6">
-        <v>489</v>
+        <v>8655</v>
       </c>
       <c r="DS6">
-        <v>552</v>
+        <v>8459</v>
       </c>
       <c r="DT6">
-        <v>317</v>
+        <v>6968</v>
       </c>
       <c r="DU6">
-        <v>562</v>
+        <v>6919</v>
       </c>
       <c r="DV6">
-        <v>489</v>
+        <v>6039</v>
       </c>
       <c r="DW6">
-        <v>349</v>
+        <v>6601</v>
       </c>
       <c r="DX6">
-        <v>342</v>
+        <v>5599</v>
       </c>
       <c r="DY6">
-        <v>359</v>
+        <v>5550</v>
       </c>
       <c r="DZ6">
-        <v>489</v>
+        <v>5207</v>
       </c>
       <c r="EA6">
-        <v>506</v>
+        <v>5476</v>
       </c>
       <c r="EB6">
-        <v>289</v>
+        <v>4523</v>
       </c>
       <c r="EC6">
-        <v>340</v>
+        <v>4278</v>
       </c>
       <c r="ED6">
-        <v>308</v>
+        <v>4083</v>
       </c>
       <c r="EE6">
-        <v>448</v>
+        <v>4058</v>
       </c>
       <c r="EF6">
-        <v>378</v>
+        <v>4205</v>
       </c>
       <c r="EG6">
-        <v>517</v>
+        <v>3691</v>
       </c>
       <c r="EH6">
-        <v>369</v>
+        <v>3007</v>
       </c>
       <c r="EI6">
-        <v>355</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="7" spans="1:141">
@@ -4139,418 +4139,418 @@
         <v>293</v>
       </c>
       <c r="B7">
-        <v>798</v>
+        <v>1101</v>
       </c>
       <c r="C7">
-        <v>913</v>
+        <v>1019</v>
       </c>
       <c r="D7">
-        <v>928</v>
+        <v>1181</v>
       </c>
       <c r="E7">
-        <v>957</v>
+        <v>1041</v>
       </c>
       <c r="F7">
-        <v>957</v>
+        <v>1036</v>
       </c>
       <c r="G7">
-        <v>978</v>
+        <v>930</v>
       </c>
       <c r="H7">
-        <v>986</v>
+        <v>772</v>
       </c>
       <c r="I7">
-        <v>1089</v>
+        <v>1024</v>
       </c>
       <c r="J7">
-        <v>958</v>
+        <v>906</v>
       </c>
       <c r="K7">
-        <v>953</v>
+        <v>747</v>
       </c>
       <c r="L7">
-        <v>841</v>
+        <v>684</v>
       </c>
       <c r="M7">
-        <v>1010</v>
+        <v>698</v>
       </c>
       <c r="N7">
-        <v>1033</v>
+        <v>708</v>
       </c>
       <c r="O7">
-        <v>1191</v>
+        <v>647</v>
       </c>
       <c r="P7">
-        <v>1130</v>
+        <v>751</v>
       </c>
       <c r="Q7">
-        <v>1116</v>
+        <v>627</v>
       </c>
       <c r="R7">
-        <v>1032</v>
+        <v>549</v>
       </c>
       <c r="S7">
-        <v>1025</v>
+        <v>699</v>
       </c>
       <c r="T7">
-        <v>1030</v>
+        <v>563</v>
       </c>
       <c r="U7">
-        <v>1214</v>
+        <v>522</v>
       </c>
       <c r="V7">
-        <v>1015</v>
+        <v>621</v>
       </c>
       <c r="W7">
-        <v>1075</v>
+        <v>537</v>
       </c>
       <c r="X7">
-        <v>800</v>
+        <v>372</v>
       </c>
       <c r="Y7">
-        <v>1004</v>
+        <v>517</v>
       </c>
       <c r="Z7">
-        <v>793</v>
+        <v>423</v>
       </c>
       <c r="AA7">
-        <v>755</v>
+        <v>405</v>
       </c>
       <c r="AB7">
-        <v>942</v>
+        <v>449</v>
       </c>
       <c r="AC7">
-        <v>684</v>
+        <v>412</v>
       </c>
       <c r="AD7">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="AE7">
-        <v>682</v>
+        <v>319</v>
       </c>
       <c r="AF7">
-        <v>643</v>
+        <v>415</v>
       </c>
       <c r="AG7">
-        <v>605</v>
+        <v>342</v>
       </c>
       <c r="AH7">
-        <v>726</v>
+        <v>467</v>
       </c>
       <c r="AI7">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AJ7">
-        <v>483</v>
+        <v>199</v>
       </c>
       <c r="AK7">
-        <v>583</v>
+        <v>383</v>
       </c>
       <c r="AL7">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="AM7">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="AN7">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="AO7">
-        <v>440</v>
+        <v>287</v>
       </c>
       <c r="AP7">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="AQ7">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="AR7">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="AS7">
+        <v>346</v>
+      </c>
+      <c r="AT7">
+        <v>305</v>
+      </c>
+      <c r="AU7">
+        <v>336</v>
+      </c>
+      <c r="AV7">
+        <v>308</v>
+      </c>
+      <c r="AW7">
+        <v>261</v>
+      </c>
+      <c r="AX7">
+        <v>165</v>
+      </c>
+      <c r="AY7">
+        <v>190</v>
+      </c>
+      <c r="AZ7">
+        <v>255</v>
+      </c>
+      <c r="BA7">
+        <v>276</v>
+      </c>
+      <c r="BB7">
+        <v>209</v>
+      </c>
+      <c r="BC7">
+        <v>207</v>
+      </c>
+      <c r="BD7">
+        <v>192</v>
+      </c>
+      <c r="BE7">
+        <v>181</v>
+      </c>
+      <c r="BF7">
+        <v>178</v>
+      </c>
+      <c r="BG7">
+        <v>232</v>
+      </c>
+      <c r="BH7">
+        <v>161</v>
+      </c>
+      <c r="BI7">
+        <v>164</v>
+      </c>
+      <c r="BJ7">
+        <v>243</v>
+      </c>
+      <c r="BK7">
+        <v>143</v>
+      </c>
+      <c r="BL7">
+        <v>137</v>
+      </c>
+      <c r="BM7">
+        <v>159</v>
+      </c>
+      <c r="BN7">
         <v>187</v>
       </c>
-      <c r="AT7">
-        <v>226</v>
-      </c>
-      <c r="AU7">
-        <v>424</v>
-      </c>
-      <c r="AV7">
-        <v>342</v>
-      </c>
-      <c r="AW7">
-        <v>186</v>
-      </c>
-      <c r="AX7">
-        <v>189</v>
-      </c>
-      <c r="AY7">
-        <v>337</v>
-      </c>
-      <c r="AZ7">
-        <v>228</v>
-      </c>
-      <c r="BA7">
+      <c r="BO7">
+        <v>215</v>
+      </c>
+      <c r="BP7">
+        <v>215</v>
+      </c>
+      <c r="BQ7">
+        <v>151</v>
+      </c>
+      <c r="BR7">
+        <v>96</v>
+      </c>
+      <c r="BS7">
+        <v>163</v>
+      </c>
+      <c r="BT7">
+        <v>87</v>
+      </c>
+      <c r="BU7">
+        <v>127</v>
+      </c>
+      <c r="BV7">
+        <v>150</v>
+      </c>
+      <c r="BW7">
+        <v>144</v>
+      </c>
+      <c r="BX7">
+        <v>123</v>
+      </c>
+      <c r="BY7">
+        <v>115</v>
+      </c>
+      <c r="BZ7">
         <v>97</v>
       </c>
-      <c r="BB7">
-        <v>162</v>
-      </c>
-      <c r="BC7">
-        <v>157</v>
-      </c>
-      <c r="BD7">
-        <v>184</v>
-      </c>
-      <c r="BE7">
-        <v>237</v>
-      </c>
-      <c r="BF7">
-        <v>174</v>
-      </c>
-      <c r="BG7">
+      <c r="CA7">
+        <v>137</v>
+      </c>
+      <c r="CB7">
+        <v>106</v>
+      </c>
+      <c r="CC7">
+        <v>148</v>
+      </c>
+      <c r="CD7">
+        <v>138</v>
+      </c>
+      <c r="CE7">
+        <v>80</v>
+      </c>
+      <c r="CF7">
         <v>119</v>
       </c>
-      <c r="BH7">
-        <v>65</v>
-      </c>
-      <c r="BI7">
-        <v>134</v>
-      </c>
-      <c r="BJ7">
-        <v>108</v>
-      </c>
-      <c r="BK7">
-        <v>181</v>
-      </c>
-      <c r="BL7">
-        <v>186</v>
-      </c>
-      <c r="BM7">
-        <v>123</v>
-      </c>
-      <c r="BN7">
-        <v>138</v>
-      </c>
-      <c r="BO7">
-        <v>268</v>
-      </c>
-      <c r="BP7">
-        <v>153</v>
-      </c>
-      <c r="BQ7">
-        <v>126</v>
-      </c>
-      <c r="BR7">
+      <c r="CG7">
+        <v>75</v>
+      </c>
+      <c r="CH7">
+        <v>91</v>
+      </c>
+      <c r="CI7">
+        <v>39</v>
+      </c>
+      <c r="CJ7">
+        <v>97</v>
+      </c>
+      <c r="CK7">
+        <v>43</v>
+      </c>
+      <c r="CL7">
+        <v>80</v>
+      </c>
+      <c r="CM7">
+        <v>85</v>
+      </c>
+      <c r="CN7">
+        <v>78</v>
+      </c>
+      <c r="CO7">
+        <v>58</v>
+      </c>
+      <c r="CP7">
+        <v>57</v>
+      </c>
+      <c r="CQ7">
+        <v>100</v>
+      </c>
+      <c r="CR7">
+        <v>69</v>
+      </c>
+      <c r="CS7">
+        <v>72</v>
+      </c>
+      <c r="CT7">
+        <v>51</v>
+      </c>
+      <c r="CU7">
+        <v>28</v>
+      </c>
+      <c r="CV7">
+        <v>33</v>
+      </c>
+      <c r="CW7">
+        <v>78</v>
+      </c>
+      <c r="CX7">
+        <v>64</v>
+      </c>
+      <c r="CY7">
+        <v>55</v>
+      </c>
+      <c r="CZ7">
+        <v>69</v>
+      </c>
+      <c r="DA7">
+        <v>38</v>
+      </c>
+      <c r="DB7">
+        <v>24</v>
+      </c>
+      <c r="DC7">
+        <v>79</v>
+      </c>
+      <c r="DD7">
+        <v>62</v>
+      </c>
+      <c r="DE7">
+        <v>92</v>
+      </c>
+      <c r="DF7">
+        <v>32</v>
+      </c>
+      <c r="DG7">
+        <v>70</v>
+      </c>
+      <c r="DH7">
+        <v>32</v>
+      </c>
+      <c r="DI7">
+        <v>68</v>
+      </c>
+      <c r="DJ7">
+        <v>33</v>
+      </c>
+      <c r="DK7">
+        <v>37</v>
+      </c>
+      <c r="DL7">
+        <v>84</v>
+      </c>
+      <c r="DM7">
         <v>87</v>
       </c>
-      <c r="BS7">
-        <v>151</v>
-      </c>
-      <c r="BT7">
-        <v>111</v>
-      </c>
-      <c r="BU7">
-        <v>155</v>
-      </c>
-      <c r="BV7">
-        <v>86</v>
-      </c>
-      <c r="BW7">
-        <v>114</v>
-      </c>
-      <c r="BX7">
-        <v>124</v>
-      </c>
-      <c r="BY7">
-        <v>128</v>
-      </c>
-      <c r="BZ7">
-        <v>134</v>
-      </c>
-      <c r="CA7">
-        <v>110</v>
-      </c>
-      <c r="CB7">
-        <v>132</v>
-      </c>
-      <c r="CC7">
-        <v>182</v>
-      </c>
-      <c r="CD7">
-        <v>144</v>
-      </c>
-      <c r="CE7">
-        <v>143</v>
-      </c>
-      <c r="CF7">
-        <v>107</v>
-      </c>
-      <c r="CG7">
-        <v>134</v>
-      </c>
-      <c r="CH7">
-        <v>92</v>
-      </c>
-      <c r="CI7">
-        <v>135</v>
-      </c>
-      <c r="CJ7">
-        <v>160</v>
-      </c>
-      <c r="CK7">
-        <v>115</v>
-      </c>
-      <c r="CL7">
-        <v>86</v>
-      </c>
-      <c r="CM7">
-        <v>89</v>
-      </c>
-      <c r="CN7">
-        <v>112</v>
-      </c>
-      <c r="CO7">
-        <v>155</v>
-      </c>
-      <c r="CP7">
-        <v>148</v>
-      </c>
-      <c r="CQ7">
-        <v>171</v>
-      </c>
-      <c r="CR7">
-        <v>155</v>
-      </c>
-      <c r="CS7">
-        <v>125</v>
-      </c>
-      <c r="CT7">
-        <v>182</v>
-      </c>
-      <c r="CU7">
-        <v>169</v>
-      </c>
-      <c r="CV7">
-        <v>193</v>
-      </c>
-      <c r="CW7">
-        <v>191</v>
-      </c>
-      <c r="CX7">
-        <v>152</v>
-      </c>
-      <c r="CY7">
-        <v>134</v>
-      </c>
-      <c r="CZ7">
-        <v>165</v>
-      </c>
-      <c r="DA7">
-        <v>159</v>
-      </c>
-      <c r="DB7">
-        <v>217</v>
-      </c>
-      <c r="DC7">
-        <v>134</v>
-      </c>
-      <c r="DD7">
-        <v>91</v>
-      </c>
-      <c r="DE7">
-        <v>131</v>
-      </c>
-      <c r="DF7">
-        <v>162</v>
-      </c>
-      <c r="DG7">
-        <v>120</v>
-      </c>
-      <c r="DH7">
-        <v>136</v>
-      </c>
-      <c r="DI7">
-        <v>107</v>
-      </c>
-      <c r="DJ7">
-        <v>119</v>
-      </c>
-      <c r="DK7">
-        <v>98</v>
-      </c>
-      <c r="DL7">
-        <v>104</v>
-      </c>
-      <c r="DM7">
-        <v>86</v>
-      </c>
       <c r="DN7">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="DO7">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="DP7">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="DQ7">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="DR7">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="DS7">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="DT7">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="DU7">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="DV7">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="DW7">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="DX7">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="DY7">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="DZ7">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="EA7">
+        <v>13</v>
+      </c>
+      <c r="EB7">
+        <v>7</v>
+      </c>
+      <c r="EC7">
         <v>55</v>
       </c>
-      <c r="EB7">
-        <v>79</v>
-      </c>
-      <c r="EC7">
-        <v>36</v>
-      </c>
       <c r="ED7">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="EE7">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="EF7">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="EG7">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="EH7">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="EI7">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:141">
@@ -4558,418 +4558,418 @@
         <v>289</v>
       </c>
       <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>21</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>19</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AE8">
+        <v>8</v>
+      </c>
+      <c r="AF8">
+        <v>15</v>
+      </c>
+      <c r="AG8">
+        <v>14</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>13</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>13</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>7</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>7</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>10</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>7</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>7</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>9</v>
+      </c>
+      <c r="BM8">
+        <v>3</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>9</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>15</v>
+      </c>
+      <c r="BW8">
+        <v>19</v>
+      </c>
+      <c r="BX8">
+        <v>9</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>12</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>9</v>
+      </c>
+      <c r="CF8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>9</v>
+      </c>
+      <c r="CI8">
+        <v>9</v>
+      </c>
+      <c r="CJ8">
+        <v>15</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>18</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>15</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>5</v>
+      </c>
+      <c r="CU8">
+        <v>11</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>11</v>
+      </c>
+      <c r="CX8">
+        <v>35</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>5</v>
+      </c>
+      <c r="DA8">
+        <v>16</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>11</v>
+      </c>
+      <c r="DD8">
+        <v>5</v>
+      </c>
+      <c r="DE8">
+        <v>11</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>13</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>13</v>
+      </c>
+      <c r="DJ8">
+        <v>26</v>
+      </c>
+      <c r="DK8">
+        <v>29</v>
+      </c>
+      <c r="DL8">
+        <v>17</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>48</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>64</v>
+      </c>
+      <c r="DR8">
+        <v>12</v>
+      </c>
+      <c r="DS8">
+        <v>15</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>15</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>24</v>
+      </c>
+      <c r="DY8">
+        <v>48</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>19</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>43</v>
+      </c>
+      <c r="ED8">
         <v>14</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>8</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>18</v>
-      </c>
-      <c r="V8">
-        <v>18</v>
-      </c>
-      <c r="W8">
-        <v>19</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>10</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>19</v>
-      </c>
-      <c r="AD8">
-        <v>19</v>
-      </c>
-      <c r="AE8">
-        <v>11</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>3</v>
-      </c>
-      <c r="AL8">
-        <v>7</v>
-      </c>
-      <c r="AM8">
-        <v>3</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>25</v>
-      </c>
-      <c r="AP8">
-        <v>27</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>24</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>3</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>9</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>2</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>5</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>13</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
-        <v>3</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>0</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8">
-        <v>1</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>0</v>
-      </c>
-      <c r="CQ8">
-        <v>0</v>
-      </c>
-      <c r="CR8">
-        <v>0</v>
-      </c>
-      <c r="CS8">
-        <v>0</v>
-      </c>
-      <c r="CT8">
-        <v>0</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>0</v>
-      </c>
-      <c r="CW8">
-        <v>1</v>
-      </c>
-      <c r="CX8">
-        <v>0</v>
-      </c>
-      <c r="CY8">
-        <v>4</v>
-      </c>
-      <c r="CZ8">
-        <v>0</v>
-      </c>
-      <c r="DA8">
-        <v>0</v>
-      </c>
-      <c r="DB8">
-        <v>0</v>
-      </c>
-      <c r="DC8">
-        <v>0</v>
-      </c>
-      <c r="DD8">
-        <v>0</v>
-      </c>
-      <c r="DE8">
-        <v>0</v>
-      </c>
-      <c r="DF8">
-        <v>0</v>
-      </c>
-      <c r="DG8">
-        <v>0</v>
-      </c>
-      <c r="DH8">
-        <v>0</v>
-      </c>
-      <c r="DI8">
-        <v>0</v>
-      </c>
-      <c r="DJ8">
-        <v>0</v>
-      </c>
-      <c r="DK8">
-        <v>0</v>
-      </c>
-      <c r="DL8">
-        <v>0</v>
-      </c>
-      <c r="DM8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
-      <c r="DO8">
-        <v>0</v>
-      </c>
-      <c r="DP8">
-        <v>0</v>
-      </c>
-      <c r="DQ8">
-        <v>0</v>
-      </c>
-      <c r="DR8">
-        <v>0</v>
-      </c>
-      <c r="DS8">
-        <v>0</v>
-      </c>
-      <c r="DT8">
-        <v>0</v>
-      </c>
-      <c r="DU8">
-        <v>0</v>
-      </c>
-      <c r="DV8">
-        <v>0</v>
-      </c>
-      <c r="DW8">
-        <v>0</v>
-      </c>
-      <c r="DX8">
-        <v>2</v>
-      </c>
-      <c r="DY8">
-        <v>0</v>
-      </c>
-      <c r="DZ8">
-        <v>0</v>
-      </c>
-      <c r="EA8">
-        <v>0</v>
-      </c>
-      <c r="EB8">
-        <v>0</v>
-      </c>
-      <c r="EC8">
-        <v>0</v>
-      </c>
-      <c r="ED8">
-        <v>0</v>
-      </c>
       <c r="EE8">
         <v>0</v>
       </c>
       <c r="EF8">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="EG8">
         <v>0</v>
       </c>
       <c r="EH8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="EI8">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:141">
@@ -4977,418 +4977,418 @@
         <v>290</v>
       </c>
       <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>21</v>
+      </c>
+      <c r="W9">
+        <v>12</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>19</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>8</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+      <c r="AF9">
+        <v>15</v>
+      </c>
+      <c r="AG9">
+        <v>14</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>13</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>13</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>7</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>7</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>14</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>16</v>
+      </c>
+      <c r="BH9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
         <v>14</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>5</v>
+      </c>
+      <c r="BP9">
+        <v>7</v>
+      </c>
+      <c r="BQ9">
+        <v>16</v>
+      </c>
+      <c r="BR9">
+        <v>9</v>
+      </c>
+      <c r="BS9">
+        <v>16</v>
+      </c>
+      <c r="BT9">
+        <v>18</v>
+      </c>
+      <c r="BU9">
+        <v>7</v>
+      </c>
+      <c r="BV9">
         <v>4</v>
       </c>
-      <c r="I9">
+      <c r="BW9">
+        <v>14</v>
+      </c>
+      <c r="BX9">
+        <v>20</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>16</v>
+      </c>
+      <c r="CA9">
+        <v>21</v>
+      </c>
+      <c r="CB9">
+        <v>16</v>
+      </c>
+      <c r="CC9">
         <v>9</v>
       </c>
-      <c r="J9">
+      <c r="CD9">
+        <v>9</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>10</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>13</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>32</v>
+      </c>
+      <c r="CK9">
+        <v>17</v>
+      </c>
+      <c r="CL9">
+        <v>24</v>
+      </c>
+      <c r="CM9">
+        <v>24</v>
+      </c>
+      <c r="CN9">
+        <v>11</v>
+      </c>
+      <c r="CO9">
+        <v>38</v>
+      </c>
+      <c r="CP9">
+        <v>27</v>
+      </c>
+      <c r="CQ9">
+        <v>11</v>
+      </c>
+      <c r="CR9">
+        <v>54</v>
+      </c>
+      <c r="CS9">
+        <v>59</v>
+      </c>
+      <c r="CT9">
+        <v>13</v>
+      </c>
+      <c r="CU9">
+        <v>74</v>
+      </c>
+      <c r="CV9">
+        <v>25</v>
+      </c>
+      <c r="CW9">
+        <v>32</v>
+      </c>
+      <c r="CX9">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>15</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>8</v>
-      </c>
-      <c r="S9">
-        <v>6</v>
-      </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
-      <c r="U9">
-        <v>18</v>
-      </c>
-      <c r="V9">
-        <v>18</v>
-      </c>
-      <c r="W9">
-        <v>19</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>10</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>19</v>
-      </c>
-      <c r="AD9">
-        <v>19</v>
-      </c>
-      <c r="AE9">
-        <v>11</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>3</v>
-      </c>
-      <c r="AL9">
+      <c r="CY9">
+        <v>28</v>
+      </c>
+      <c r="CZ9">
+        <v>53</v>
+      </c>
+      <c r="DA9">
+        <v>56</v>
+      </c>
+      <c r="DB9">
+        <v>47</v>
+      </c>
+      <c r="DC9">
+        <v>53</v>
+      </c>
+      <c r="DD9">
+        <v>23</v>
+      </c>
+      <c r="DE9">
+        <v>40</v>
+      </c>
+      <c r="DF9">
         <v>7</v>
       </c>
-      <c r="AM9">
-        <v>3</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
+      <c r="DG9">
+        <v>26</v>
+      </c>
+      <c r="DH9">
         <v>20</v>
       </c>
-      <c r="AP9">
-        <v>21</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>3</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
+      <c r="DI9">
+        <v>47</v>
+      </c>
+      <c r="DJ9">
+        <v>73</v>
+      </c>
+      <c r="DK9">
+        <v>5</v>
+      </c>
+      <c r="DL9">
+        <v>71</v>
+      </c>
+      <c r="DM9">
+        <v>41</v>
+      </c>
+      <c r="DN9">
+        <v>32</v>
+      </c>
+      <c r="DO9">
+        <v>34</v>
+      </c>
+      <c r="DP9">
+        <v>29</v>
+      </c>
+      <c r="DQ9">
+        <v>48</v>
+      </c>
+      <c r="DR9">
+        <v>73</v>
+      </c>
+      <c r="DS9">
+        <v>82</v>
+      </c>
+      <c r="DT9">
+        <v>82</v>
+      </c>
+      <c r="DU9">
+        <v>46</v>
+      </c>
+      <c r="DV9">
+        <v>57</v>
+      </c>
+      <c r="DW9">
+        <v>73</v>
+      </c>
+      <c r="DX9">
+        <v>104</v>
+      </c>
+      <c r="DY9">
+        <v>35</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
         <v>24</v>
       </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>3</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>3</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>2</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>5</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>3</v>
-      </c>
-      <c r="BQ9">
-        <v>3</v>
-      </c>
-      <c r="BR9">
-        <v>3</v>
-      </c>
-      <c r="BS9">
-        <v>3</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>0</v>
-      </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
-      <c r="CB9">
-        <v>25</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
-        <v>0</v>
-      </c>
-      <c r="CI9">
-        <v>12</v>
-      </c>
-      <c r="CJ9">
-        <v>8</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>10</v>
-      </c>
-      <c r="CP9">
-        <v>3</v>
-      </c>
-      <c r="CQ9">
-        <v>3</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
-      </c>
-      <c r="CS9">
-        <v>3</v>
-      </c>
-      <c r="CT9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CW9">
-        <v>5</v>
-      </c>
-      <c r="CX9">
-        <v>0</v>
-      </c>
-      <c r="CY9">
-        <v>3</v>
-      </c>
-      <c r="CZ9">
-        <v>0</v>
-      </c>
-      <c r="DA9">
-        <v>0</v>
-      </c>
-      <c r="DB9">
-        <v>0</v>
-      </c>
-      <c r="DC9">
-        <v>0</v>
-      </c>
-      <c r="DD9">
-        <v>0</v>
-      </c>
-      <c r="DE9">
-        <v>3</v>
-      </c>
-      <c r="DF9">
-        <v>0</v>
-      </c>
-      <c r="DG9">
-        <v>2</v>
-      </c>
-      <c r="DH9">
-        <v>0</v>
-      </c>
-      <c r="DI9">
-        <v>5</v>
-      </c>
-      <c r="DJ9">
-        <v>0</v>
-      </c>
-      <c r="DK9">
-        <v>3</v>
-      </c>
-      <c r="DL9">
-        <v>0</v>
-      </c>
-      <c r="DM9">
-        <v>0</v>
-      </c>
-      <c r="DN9">
-        <v>0</v>
-      </c>
-      <c r="DO9">
-        <v>0</v>
-      </c>
-      <c r="DP9">
-        <v>0</v>
-      </c>
-      <c r="DQ9">
-        <v>0</v>
-      </c>
-      <c r="DR9">
-        <v>6</v>
-      </c>
-      <c r="DS9">
-        <v>1</v>
-      </c>
-      <c r="DT9">
-        <v>0</v>
-      </c>
-      <c r="DU9">
-        <v>0</v>
-      </c>
-      <c r="DV9">
-        <v>0</v>
-      </c>
-      <c r="DW9">
-        <v>0</v>
-      </c>
-      <c r="DX9">
-        <v>8</v>
-      </c>
-      <c r="DY9">
-        <v>11</v>
-      </c>
-      <c r="DZ9">
-        <v>6</v>
-      </c>
-      <c r="EA9">
-        <v>0</v>
-      </c>
       <c r="EB9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="EC9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="ED9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="EE9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="EF9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="EG9">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="EH9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="EI9">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:141">
@@ -5396,418 +5396,418 @@
         <v>291</v>
       </c>
       <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+      <c r="T10">
         <v>14</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
+      <c r="U10">
+        <v>18</v>
+      </c>
+      <c r="V10">
         <v>16</v>
       </c>
-      <c r="L10">
+      <c r="W10">
+        <v>19</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>13</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>26</v>
+      </c>
+      <c r="AB10">
         <v>10</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10">
+      <c r="AC10">
+        <v>13</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>24</v>
+      </c>
+      <c r="AF10">
+        <v>23</v>
+      </c>
+      <c r="AG10">
         <v>5</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>17</v>
-      </c>
-      <c r="W10">
-        <v>18</v>
-      </c>
-      <c r="X10">
-        <v>15</v>
-      </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>7</v>
-      </c>
-      <c r="AB10">
-        <v>3</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>8</v>
-      </c>
-      <c r="AE10">
-        <v>3</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>7</v>
-      </c>
       <c r="AH10">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AI10">
         <v>9</v>
       </c>
       <c r="AJ10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AN10">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AP10">
+        <v>16</v>
+      </c>
+      <c r="AQ10">
+        <v>29</v>
+      </c>
+      <c r="AR10">
+        <v>29</v>
+      </c>
+      <c r="AS10">
+        <v>31</v>
+      </c>
+      <c r="AT10">
+        <v>33</v>
+      </c>
+      <c r="AU10">
+        <v>29</v>
+      </c>
+      <c r="AV10">
+        <v>15</v>
+      </c>
+      <c r="AW10">
+        <v>39</v>
+      </c>
+      <c r="AX10">
+        <v>13</v>
+      </c>
+      <c r="AY10">
+        <v>24</v>
+      </c>
+      <c r="AZ10">
+        <v>23</v>
+      </c>
+      <c r="BA10">
         <v>9</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
+      <c r="BB10">
         <v>22</v>
       </c>
-      <c r="AY10">
-        <v>4</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
       <c r="BC10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BD10">
+        <v>26</v>
+      </c>
+      <c r="BE10">
+        <v>59</v>
+      </c>
+      <c r="BF10">
+        <v>50</v>
+      </c>
+      <c r="BG10">
+        <v>38</v>
+      </c>
+      <c r="BH10">
+        <v>43</v>
+      </c>
+      <c r="BI10">
+        <v>27</v>
+      </c>
+      <c r="BJ10">
+        <v>19</v>
+      </c>
+      <c r="BK10">
+        <v>54</v>
+      </c>
+      <c r="BL10">
+        <v>86</v>
+      </c>
+      <c r="BM10">
+        <v>58</v>
+      </c>
+      <c r="BN10">
+        <v>59</v>
+      </c>
+      <c r="BO10">
         <v>7</v>
       </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>4</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>4</v>
-      </c>
-      <c r="BM10">
-        <v>6</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
       <c r="BP10">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="BQ10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BT10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BU10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BV10">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BY10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BZ10">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="CB10">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="CE10">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="CF10">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="CG10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CH10">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="CI10">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="CJ10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="CK10">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="CL10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM10">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="CO10">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="CP10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="CR10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="CS10">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="CT10">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="CU10">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="CV10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="CW10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CX10">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="CY10">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="CZ10">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="DA10">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="DB10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DC10">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DD10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DE10">
         <v>0</v>
       </c>
       <c r="DF10">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="DG10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DH10">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="DI10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="DJ10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="DK10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="DL10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="DM10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DN10">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="DO10">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="DP10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="DQ10">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="DR10">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="DS10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DT10">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="DU10">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="DV10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="DW10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="DX10">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="DY10">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="DZ10">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="EA10">
         <v>0</v>
       </c>
       <c r="EB10">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="EC10">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="ED10">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EE10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="EF10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EG10">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="EH10">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="EI10">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:141">
@@ -5815,418 +5815,418 @@
         <v>292</v>
       </c>
       <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>18</v>
+      </c>
+      <c r="T11">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>43</v>
+      </c>
+      <c r="W11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
+      <c r="X11">
         <v>9</v>
       </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>12</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>8</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>9</v>
-      </c>
-      <c r="S11">
-        <v>7</v>
-      </c>
-      <c r="T11">
-        <v>7</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>17</v>
-      </c>
-      <c r="W11">
-        <v>15</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA11">
         <v>18</v>
       </c>
       <c r="AB11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="AE11">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AF11">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="AG11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AH11">
+        <v>27</v>
+      </c>
+      <c r="AI11">
+        <v>20</v>
+      </c>
+      <c r="AJ11">
+        <v>37</v>
+      </c>
+      <c r="AK11">
+        <v>18</v>
+      </c>
+      <c r="AL11">
+        <v>35</v>
+      </c>
+      <c r="AM11">
+        <v>41</v>
+      </c>
+      <c r="AN11">
+        <v>46</v>
+      </c>
+      <c r="AO11">
         <v>22</v>
       </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>9</v>
-      </c>
-      <c r="AK11">
-        <v>20</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>11</v>
-      </c>
-      <c r="AO11">
+      <c r="AP11">
+        <v>8</v>
+      </c>
+      <c r="AQ11">
+        <v>25</v>
+      </c>
+      <c r="AR11">
         <v>28</v>
       </c>
-      <c r="AP11">
-        <v>1</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>12</v>
-      </c>
       <c r="AS11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AT11">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AW11">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AY11">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="BA11">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="BB11">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BD11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BE11">
+        <v>55</v>
+      </c>
+      <c r="BF11">
+        <v>64</v>
+      </c>
+      <c r="BG11">
+        <v>88</v>
+      </c>
+      <c r="BH11">
+        <v>81</v>
+      </c>
+      <c r="BI11">
+        <v>48</v>
+      </c>
+      <c r="BJ11">
+        <v>64</v>
+      </c>
+      <c r="BK11">
+        <v>55</v>
+      </c>
+      <c r="BL11">
+        <v>37</v>
+      </c>
+      <c r="BM11">
+        <v>101</v>
+      </c>
+      <c r="BN11">
+        <v>125</v>
+      </c>
+      <c r="BO11">
+        <v>94</v>
+      </c>
+      <c r="BP11">
+        <v>71</v>
+      </c>
+      <c r="BQ11">
+        <v>94</v>
+      </c>
+      <c r="BR11">
+        <v>146</v>
+      </c>
+      <c r="BS11">
+        <v>97</v>
+      </c>
+      <c r="BT11">
+        <v>42</v>
+      </c>
+      <c r="BU11">
+        <v>97</v>
+      </c>
+      <c r="BV11">
+        <v>73</v>
+      </c>
+      <c r="BW11">
+        <v>97</v>
+      </c>
+      <c r="BX11">
+        <v>97</v>
+      </c>
+      <c r="BY11">
+        <v>122</v>
+      </c>
+      <c r="BZ11">
+        <v>35</v>
+      </c>
+      <c r="CA11">
+        <v>73</v>
+      </c>
+      <c r="CB11">
+        <v>53</v>
+      </c>
+      <c r="CC11">
+        <v>51</v>
+      </c>
+      <c r="CD11">
+        <v>113</v>
+      </c>
+      <c r="CE11">
+        <v>96</v>
+      </c>
+      <c r="CF11">
+        <v>64</v>
+      </c>
+      <c r="CG11">
+        <v>34</v>
+      </c>
+      <c r="CH11">
+        <v>80</v>
+      </c>
+      <c r="CI11">
+        <v>80</v>
+      </c>
+      <c r="CJ11">
+        <v>73</v>
+      </c>
+      <c r="CK11">
+        <v>96</v>
+      </c>
+      <c r="CL11">
+        <v>31</v>
+      </c>
+      <c r="CM11">
+        <v>71</v>
+      </c>
+      <c r="CN11">
+        <v>48</v>
+      </c>
+      <c r="CO11">
+        <v>48</v>
+      </c>
+      <c r="CP11">
+        <v>73</v>
+      </c>
+      <c r="CQ11">
         <v>24</v>
       </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>4</v>
-      </c>
-      <c r="BI11">
-        <v>2</v>
-      </c>
-      <c r="BJ11">
-        <v>5</v>
-      </c>
-      <c r="BK11">
-        <v>12</v>
-      </c>
-      <c r="BL11">
-        <v>2</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>7</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>28</v>
-      </c>
-      <c r="BQ11">
-        <v>21</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>15</v>
-      </c>
-      <c r="BT11">
-        <v>15</v>
-      </c>
-      <c r="BU11">
-        <v>7</v>
-      </c>
-      <c r="BV11">
-        <v>4</v>
-      </c>
-      <c r="BW11">
-        <v>7</v>
-      </c>
-      <c r="BX11">
-        <v>4</v>
-      </c>
-      <c r="BY11">
-        <v>8</v>
-      </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
-        <v>4</v>
-      </c>
-      <c r="CB11">
-        <v>0</v>
-      </c>
-      <c r="CC11">
-        <v>2</v>
-      </c>
-      <c r="CD11">
-        <v>0</v>
-      </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
-        <v>8</v>
-      </c>
-      <c r="CG11">
-        <v>0</v>
-      </c>
-      <c r="CH11">
-        <v>11</v>
-      </c>
-      <c r="CI11">
-        <v>2</v>
-      </c>
-      <c r="CJ11">
-        <v>40</v>
-      </c>
-      <c r="CK11">
-        <v>16</v>
-      </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
-      </c>
-      <c r="CO11">
-        <v>14</v>
-      </c>
-      <c r="CP11">
-        <v>28</v>
-      </c>
-      <c r="CQ11">
-        <v>12</v>
-      </c>
       <c r="CR11">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="CS11">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="CT11">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="CU11">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="CV11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="CW11">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="CX11">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="CY11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="CZ11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DA11">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="DB11">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="DC11">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="DD11">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="DE11">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="DF11">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="DG11">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="DH11">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="DI11">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="DJ11">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="DK11">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="DL11">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="DM11">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="DN11">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="DO11">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="DP11">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="DQ11">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="DR11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DS11">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="DT11">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="DU11">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="DV11">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="DW11">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="DX11">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="DY11">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="DZ11">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="EA11">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="EB11">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="EC11">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="ED11">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="EE11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="EF11">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="EG11">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="EH11">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="EI11">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:141">
@@ -6234,274 +6234,274 @@
         <v>293</v>
       </c>
       <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>22</v>
+      </c>
+      <c r="N12">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12">
+        <v>21</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>19</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>8</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>8</v>
+      </c>
+      <c r="AF12">
+        <v>15</v>
+      </c>
+      <c r="AG12">
+        <v>14</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>13</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>13</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>7</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>7</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="AX12">
+        <v>6</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>5</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
         <v>4</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>15</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>8</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>8</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>18</v>
-      </c>
-      <c r="V12">
-        <v>18</v>
-      </c>
-      <c r="W12">
-        <v>19</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>10</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>19</v>
-      </c>
-      <c r="AD12">
-        <v>19</v>
-      </c>
-      <c r="AE12">
-        <v>11</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>3</v>
-      </c>
-      <c r="AL12">
-        <v>7</v>
-      </c>
-      <c r="AM12">
-        <v>3</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>25</v>
-      </c>
-      <c r="AP12">
-        <v>26</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>3</v>
-      </c>
-      <c r="AV12">
-        <v>3</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>24</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>12</v>
-      </c>
-      <c r="BD12">
-        <v>2</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>3</v>
-      </c>
-      <c r="BP12">
-        <v>22</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
-      </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12">
-        <v>0</v>
-      </c>
-      <c r="CB12">
-        <v>0</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12">
-        <v>0</v>
-      </c>
-      <c r="CE12">
-        <v>0</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>3</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
       </c>
       <c r="CN12">
         <v>0</v>
@@ -6653,418 +6653,418 @@
         <v>289</v>
       </c>
       <c r="B13">
-        <v>221</v>
+        <v>490</v>
       </c>
       <c r="C13">
-        <v>234</v>
+        <v>606</v>
       </c>
       <c r="D13">
+        <v>423</v>
+      </c>
+      <c r="E13">
+        <v>457</v>
+      </c>
+      <c r="F13">
+        <v>528</v>
+      </c>
+      <c r="G13">
+        <v>513</v>
+      </c>
+      <c r="H13">
+        <v>472</v>
+      </c>
+      <c r="I13">
+        <v>340</v>
+      </c>
+      <c r="J13">
+        <v>398</v>
+      </c>
+      <c r="K13">
+        <v>405</v>
+      </c>
+      <c r="L13">
+        <v>364</v>
+      </c>
+      <c r="M13">
+        <v>409</v>
+      </c>
+      <c r="N13">
+        <v>469</v>
+      </c>
+      <c r="O13">
+        <v>386</v>
+      </c>
+      <c r="P13">
+        <v>288</v>
+      </c>
+      <c r="Q13">
+        <v>466</v>
+      </c>
+      <c r="R13">
+        <v>345</v>
+      </c>
+      <c r="S13">
+        <v>369</v>
+      </c>
+      <c r="T13">
+        <v>308</v>
+      </c>
+      <c r="U13">
+        <v>282</v>
+      </c>
+      <c r="V13">
+        <v>301</v>
+      </c>
+      <c r="W13">
+        <v>220</v>
+      </c>
+      <c r="X13">
+        <v>286</v>
+      </c>
+      <c r="Y13">
+        <v>227</v>
+      </c>
+      <c r="Z13">
+        <v>178</v>
+      </c>
+      <c r="AA13">
+        <v>256</v>
+      </c>
+      <c r="AB13">
+        <v>224</v>
+      </c>
+      <c r="AC13">
+        <v>216</v>
+      </c>
+      <c r="AD13">
+        <v>147</v>
+      </c>
+      <c r="AE13">
+        <v>205</v>
+      </c>
+      <c r="AF13">
+        <v>166</v>
+      </c>
+      <c r="AG13">
+        <v>190</v>
+      </c>
+      <c r="AH13">
+        <v>148</v>
+      </c>
+      <c r="AI13">
+        <v>177</v>
+      </c>
+      <c r="AJ13">
+        <v>213</v>
+      </c>
+      <c r="AK13">
+        <v>114</v>
+      </c>
+      <c r="AL13">
+        <v>175</v>
+      </c>
+      <c r="AM13">
+        <v>160</v>
+      </c>
+      <c r="AN13">
+        <v>201</v>
+      </c>
+      <c r="AO13">
+        <v>232</v>
+      </c>
+      <c r="AP13">
+        <v>207</v>
+      </c>
+      <c r="AQ13">
+        <v>175</v>
+      </c>
+      <c r="AR13">
+        <v>166</v>
+      </c>
+      <c r="AS13">
+        <v>242</v>
+      </c>
+      <c r="AT13">
         <v>215</v>
       </c>
-      <c r="E13">
-        <v>203</v>
-      </c>
-      <c r="F13">
+      <c r="AU13">
+        <v>263</v>
+      </c>
+      <c r="AV13">
+        <v>282</v>
+      </c>
+      <c r="AW13">
+        <v>181</v>
+      </c>
+      <c r="AX13">
+        <v>200</v>
+      </c>
+      <c r="AY13">
+        <v>235</v>
+      </c>
+      <c r="AZ13">
         <v>229</v>
       </c>
-      <c r="G13">
-        <v>241</v>
-      </c>
-      <c r="H13">
-        <v>235</v>
-      </c>
-      <c r="I13">
-        <v>174</v>
-      </c>
-      <c r="J13">
-        <v>206</v>
-      </c>
-      <c r="K13">
-        <v>235</v>
-      </c>
-      <c r="L13">
-        <v>183</v>
-      </c>
-      <c r="M13">
-        <v>125</v>
-      </c>
-      <c r="N13">
-        <v>232</v>
-      </c>
-      <c r="O13">
-        <v>191</v>
-      </c>
-      <c r="P13">
-        <v>206</v>
-      </c>
-      <c r="Q13">
-        <v>141</v>
-      </c>
-      <c r="R13">
-        <v>205</v>
-      </c>
-      <c r="S13">
-        <v>170</v>
-      </c>
-      <c r="T13">
-        <v>235</v>
-      </c>
-      <c r="U13">
-        <v>153</v>
-      </c>
-      <c r="V13">
-        <v>182</v>
-      </c>
-      <c r="W13">
+      <c r="BA13">
+        <v>237</v>
+      </c>
+      <c r="BB13">
+        <v>346</v>
+      </c>
+      <c r="BC13">
+        <v>320</v>
+      </c>
+      <c r="BD13">
         <v>226</v>
       </c>
-      <c r="X13">
-        <v>119</v>
-      </c>
-      <c r="Y13">
-        <v>65</v>
-      </c>
-      <c r="Z13">
-        <v>97</v>
-      </c>
-      <c r="AA13">
-        <v>86</v>
-      </c>
-      <c r="AB13">
-        <v>110</v>
-      </c>
-      <c r="AC13">
-        <v>104</v>
-      </c>
-      <c r="AD13">
-        <v>146</v>
-      </c>
-      <c r="AE13">
-        <v>97</v>
-      </c>
-      <c r="AF13">
-        <v>160</v>
-      </c>
-      <c r="AG13">
-        <v>138</v>
-      </c>
-      <c r="AH13">
-        <v>97</v>
-      </c>
-      <c r="AI13">
-        <v>68</v>
-      </c>
-      <c r="AJ13">
-        <v>99</v>
-      </c>
-      <c r="AK13">
-        <v>80</v>
-      </c>
-      <c r="AL13">
-        <v>112</v>
-      </c>
-      <c r="AM13">
-        <v>67</v>
-      </c>
-      <c r="AN13">
-        <v>72</v>
-      </c>
-      <c r="AO13">
-        <v>168</v>
-      </c>
-      <c r="AP13">
-        <v>93</v>
-      </c>
-      <c r="AQ13">
-        <v>87</v>
-      </c>
-      <c r="AR13">
-        <v>79</v>
-      </c>
-      <c r="AS13">
-        <v>98</v>
-      </c>
-      <c r="AT13">
-        <v>129</v>
-      </c>
-      <c r="AU13">
-        <v>76</v>
-      </c>
-      <c r="AV13">
-        <v>58</v>
-      </c>
-      <c r="AW13">
-        <v>44</v>
-      </c>
-      <c r="AX13">
-        <v>65</v>
-      </c>
-      <c r="AY13">
-        <v>61</v>
-      </c>
-      <c r="AZ13">
-        <v>65</v>
-      </c>
-      <c r="BA13">
-        <v>47</v>
-      </c>
-      <c r="BB13">
-        <v>69</v>
-      </c>
-      <c r="BC13">
-        <v>89</v>
-      </c>
-      <c r="BD13">
-        <v>60</v>
-      </c>
       <c r="BE13">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="BF13">
-        <v>56</v>
+        <v>371</v>
       </c>
       <c r="BG13">
-        <v>60</v>
+        <v>334</v>
       </c>
       <c r="BH13">
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="BI13">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="BJ13">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="BK13">
-        <v>93</v>
+        <v>477</v>
       </c>
       <c r="BL13">
-        <v>51</v>
+        <v>409</v>
       </c>
       <c r="BM13">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="BN13">
-        <v>56</v>
+        <v>451</v>
       </c>
       <c r="BO13">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="BP13">
-        <v>70</v>
+        <v>515</v>
       </c>
       <c r="BQ13">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="BR13">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="BS13">
-        <v>41</v>
+        <v>468</v>
       </c>
       <c r="BT13">
-        <v>72</v>
+        <v>482</v>
       </c>
       <c r="BU13">
-        <v>62</v>
+        <v>611</v>
       </c>
       <c r="BV13">
-        <v>65</v>
+        <v>633</v>
       </c>
       <c r="BW13">
-        <v>67</v>
+        <v>513</v>
       </c>
       <c r="BX13">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="BY13">
-        <v>48</v>
+        <v>602</v>
       </c>
       <c r="BZ13">
-        <v>62</v>
+        <v>550</v>
       </c>
       <c r="CA13">
-        <v>38</v>
+        <v>595</v>
       </c>
       <c r="CB13">
-        <v>57</v>
+        <v>622</v>
       </c>
       <c r="CC13">
-        <v>65</v>
+        <v>611</v>
       </c>
       <c r="CD13">
-        <v>22</v>
+        <v>563</v>
       </c>
       <c r="CE13">
-        <v>54</v>
+        <v>561</v>
       </c>
       <c r="CF13">
-        <v>46</v>
+        <v>445</v>
       </c>
       <c r="CG13">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="CH13">
-        <v>46</v>
+        <v>700</v>
       </c>
       <c r="CI13">
-        <v>59</v>
+        <v>506</v>
       </c>
       <c r="CJ13">
-        <v>27</v>
+        <v>484</v>
       </c>
       <c r="CK13">
-        <v>36</v>
+        <v>650</v>
       </c>
       <c r="CL13">
-        <v>27</v>
+        <v>672</v>
       </c>
       <c r="CM13">
-        <v>79</v>
+        <v>765</v>
       </c>
       <c r="CN13">
-        <v>28</v>
+        <v>695</v>
       </c>
       <c r="CO13">
-        <v>64</v>
+        <v>761</v>
       </c>
       <c r="CP13">
-        <v>102</v>
+        <v>804</v>
       </c>
       <c r="CQ13">
-        <v>64</v>
+        <v>461</v>
       </c>
       <c r="CR13">
-        <v>43</v>
+        <v>717</v>
       </c>
       <c r="CS13">
-        <v>58</v>
+        <v>530</v>
       </c>
       <c r="CT13">
-        <v>94</v>
+        <v>743</v>
       </c>
       <c r="CU13">
-        <v>30</v>
+        <v>846</v>
       </c>
       <c r="CV13">
-        <v>52</v>
+        <v>703</v>
       </c>
       <c r="CW13">
-        <v>31</v>
+        <v>697</v>
       </c>
       <c r="CX13">
-        <v>86</v>
+        <v>752</v>
       </c>
       <c r="CY13">
-        <v>70</v>
+        <v>694</v>
       </c>
       <c r="CZ13">
-        <v>49</v>
+        <v>757</v>
       </c>
       <c r="DA13">
-        <v>76</v>
+        <v>684</v>
       </c>
       <c r="DB13">
-        <v>61</v>
+        <v>750</v>
       </c>
       <c r="DC13">
-        <v>55</v>
+        <v>783</v>
       </c>
       <c r="DD13">
-        <v>33</v>
+        <v>709</v>
       </c>
       <c r="DE13">
-        <v>88</v>
+        <v>874</v>
       </c>
       <c r="DF13">
-        <v>43</v>
+        <v>823</v>
       </c>
       <c r="DG13">
-        <v>55</v>
+        <v>709</v>
       </c>
       <c r="DH13">
-        <v>17</v>
+        <v>880</v>
       </c>
       <c r="DI13">
-        <v>16</v>
+        <v>746</v>
       </c>
       <c r="DJ13">
-        <v>73</v>
+        <v>709</v>
       </c>
       <c r="DK13">
-        <v>58</v>
+        <v>684</v>
       </c>
       <c r="DL13">
-        <v>39</v>
+        <v>562</v>
       </c>
       <c r="DM13">
-        <v>32</v>
+        <v>904</v>
       </c>
       <c r="DN13">
-        <v>27</v>
+        <v>757</v>
       </c>
       <c r="DO13">
-        <v>30</v>
+        <v>684</v>
       </c>
       <c r="DP13">
-        <v>38</v>
+        <v>733</v>
       </c>
       <c r="DQ13">
-        <v>54</v>
+        <v>635</v>
       </c>
       <c r="DR13">
-        <v>25</v>
+        <v>684</v>
       </c>
       <c r="DS13">
-        <v>26</v>
+        <v>562</v>
       </c>
       <c r="DT13">
-        <v>39</v>
+        <v>660</v>
       </c>
       <c r="DU13">
-        <v>76</v>
+        <v>611</v>
       </c>
       <c r="DV13">
-        <v>61</v>
+        <v>684</v>
       </c>
       <c r="DW13">
-        <v>49</v>
+        <v>681</v>
       </c>
       <c r="DX13">
-        <v>29</v>
+        <v>611</v>
       </c>
       <c r="DY13">
-        <v>43</v>
+        <v>489</v>
       </c>
       <c r="DZ13">
-        <v>34</v>
+        <v>610</v>
       </c>
       <c r="EA13">
-        <v>31</v>
+        <v>629</v>
       </c>
       <c r="EB13">
-        <v>28</v>
+        <v>501</v>
       </c>
       <c r="EC13">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="ED13">
-        <v>36</v>
+        <v>544</v>
       </c>
       <c r="EE13">
-        <v>24</v>
+        <v>929</v>
       </c>
       <c r="EF13">
-        <v>18</v>
+        <v>388</v>
       </c>
       <c r="EG13">
-        <v>52</v>
+        <v>438</v>
       </c>
       <c r="EH13">
-        <v>14</v>
+        <v>427</v>
       </c>
       <c r="EI13">
-        <v>9</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:141">
@@ -7072,418 +7072,418 @@
         <v>290</v>
       </c>
       <c r="B14">
-        <v>221</v>
+        <v>490</v>
       </c>
       <c r="C14">
-        <v>234</v>
+        <v>606</v>
       </c>
       <c r="D14">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="E14">
-        <v>203</v>
+        <v>457</v>
       </c>
       <c r="F14">
-        <v>229</v>
+        <v>528</v>
       </c>
       <c r="G14">
-        <v>241</v>
+        <v>513</v>
       </c>
       <c r="H14">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="I14">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="J14">
-        <v>206</v>
+        <v>398</v>
       </c>
       <c r="K14">
-        <v>235</v>
+        <v>405</v>
       </c>
       <c r="L14">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>409</v>
       </c>
       <c r="N14">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="O14">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="P14">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="Q14">
-        <v>141</v>
+        <v>466</v>
       </c>
       <c r="R14">
+        <v>345</v>
+      </c>
+      <c r="S14">
+        <v>369</v>
+      </c>
+      <c r="T14">
+        <v>308</v>
+      </c>
+      <c r="U14">
+        <v>282</v>
+      </c>
+      <c r="V14">
+        <v>301</v>
+      </c>
+      <c r="W14">
+        <v>220</v>
+      </c>
+      <c r="X14">
+        <v>286</v>
+      </c>
+      <c r="Y14">
+        <v>227</v>
+      </c>
+      <c r="Z14">
+        <v>178</v>
+      </c>
+      <c r="AA14">
+        <v>256</v>
+      </c>
+      <c r="AB14">
+        <v>224</v>
+      </c>
+      <c r="AC14">
+        <v>216</v>
+      </c>
+      <c r="AD14">
+        <v>147</v>
+      </c>
+      <c r="AE14">
         <v>205</v>
       </c>
-      <c r="S14">
+      <c r="AF14">
+        <v>166</v>
+      </c>
+      <c r="AG14">
+        <v>190</v>
+      </c>
+      <c r="AH14">
+        <v>179</v>
+      </c>
+      <c r="AI14">
+        <v>225</v>
+      </c>
+      <c r="AJ14">
+        <v>154</v>
+      </c>
+      <c r="AK14">
+        <v>134</v>
+      </c>
+      <c r="AL14">
+        <v>193</v>
+      </c>
+      <c r="AM14">
+        <v>227</v>
+      </c>
+      <c r="AN14">
+        <v>207</v>
+      </c>
+      <c r="AO14">
+        <v>142</v>
+      </c>
+      <c r="AP14">
         <v>170</v>
       </c>
-      <c r="T14">
-        <v>235</v>
-      </c>
-      <c r="U14">
-        <v>153</v>
-      </c>
-      <c r="V14">
-        <v>182</v>
-      </c>
-      <c r="W14">
-        <v>226</v>
-      </c>
-      <c r="X14">
-        <v>119</v>
-      </c>
-      <c r="Y14">
-        <v>65</v>
-      </c>
-      <c r="Z14">
-        <v>97</v>
-      </c>
-      <c r="AA14">
-        <v>86</v>
-      </c>
-      <c r="AB14">
-        <v>110</v>
-      </c>
-      <c r="AC14">
-        <v>104</v>
-      </c>
-      <c r="AD14">
-        <v>146</v>
-      </c>
-      <c r="AE14">
-        <v>97</v>
-      </c>
-      <c r="AF14">
-        <v>160</v>
-      </c>
-      <c r="AG14">
-        <v>138</v>
-      </c>
-      <c r="AH14">
-        <v>66</v>
-      </c>
-      <c r="AI14">
-        <v>81</v>
-      </c>
-      <c r="AJ14">
-        <v>136</v>
-      </c>
-      <c r="AK14">
-        <v>129</v>
-      </c>
-      <c r="AL14">
-        <v>66</v>
-      </c>
-      <c r="AM14">
-        <v>62</v>
-      </c>
-      <c r="AN14">
-        <v>138</v>
-      </c>
-      <c r="AO14">
-        <v>104</v>
-      </c>
-      <c r="AP14">
-        <v>86</v>
-      </c>
       <c r="AQ14">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="AR14">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="AS14">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="AT14">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="AU14">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="AV14">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="AW14">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="AX14">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="AY14">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="AZ14">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="BA14">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="BB14">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="BC14">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="BD14">
-        <v>126</v>
+        <v>462</v>
       </c>
       <c r="BE14">
-        <v>107</v>
+        <v>482</v>
       </c>
       <c r="BF14">
-        <v>112</v>
+        <v>488</v>
       </c>
       <c r="BG14">
-        <v>102</v>
+        <v>577</v>
       </c>
       <c r="BH14">
-        <v>156</v>
+        <v>545</v>
       </c>
       <c r="BI14">
-        <v>106</v>
+        <v>570</v>
       </c>
       <c r="BJ14">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="BK14">
-        <v>123</v>
+        <v>565</v>
       </c>
       <c r="BL14">
-        <v>137</v>
+        <v>676</v>
       </c>
       <c r="BM14">
-        <v>121</v>
+        <v>597</v>
       </c>
       <c r="BN14">
-        <v>104</v>
+        <v>716</v>
       </c>
       <c r="BO14">
-        <v>139</v>
+        <v>614</v>
       </c>
       <c r="BP14">
-        <v>113</v>
+        <v>613</v>
       </c>
       <c r="BQ14">
-        <v>123</v>
+        <v>637</v>
       </c>
       <c r="BR14">
-        <v>125</v>
+        <v>623</v>
       </c>
       <c r="BS14">
-        <v>160</v>
+        <v>753</v>
       </c>
       <c r="BT14">
-        <v>119</v>
+        <v>818</v>
       </c>
       <c r="BU14">
-        <v>113</v>
+        <v>729</v>
       </c>
       <c r="BV14">
-        <v>160</v>
+        <v>628</v>
       </c>
       <c r="BW14">
-        <v>89</v>
+        <v>708</v>
       </c>
       <c r="BX14">
-        <v>101</v>
+        <v>844</v>
       </c>
       <c r="BY14">
-        <v>171</v>
+        <v>730</v>
       </c>
       <c r="BZ14">
-        <v>153</v>
+        <v>951</v>
       </c>
       <c r="CA14">
-        <v>98</v>
+        <v>843</v>
       </c>
       <c r="CB14">
-        <v>144</v>
+        <v>970</v>
       </c>
       <c r="CC14">
-        <v>164</v>
+        <v>960</v>
       </c>
       <c r="CD14">
-        <v>175</v>
+        <v>1057</v>
       </c>
       <c r="CE14">
-        <v>89</v>
+        <v>1337</v>
       </c>
       <c r="CF14">
-        <v>86</v>
+        <v>1281</v>
       </c>
       <c r="CG14">
-        <v>135</v>
+        <v>977</v>
       </c>
       <c r="CH14">
-        <v>193</v>
+        <v>1022</v>
       </c>
       <c r="CI14">
-        <v>123</v>
+        <v>1218</v>
       </c>
       <c r="CJ14">
-        <v>111</v>
+        <v>1320</v>
       </c>
       <c r="CK14">
-        <v>76</v>
+        <v>1178</v>
       </c>
       <c r="CL14">
-        <v>129</v>
+        <v>1134</v>
       </c>
       <c r="CM14">
-        <v>179</v>
+        <v>1250</v>
       </c>
       <c r="CN14">
-        <v>182</v>
+        <v>1399</v>
       </c>
       <c r="CO14">
-        <v>80</v>
+        <v>1608</v>
       </c>
       <c r="CP14">
-        <v>233</v>
+        <v>1064</v>
       </c>
       <c r="CQ14">
-        <v>155</v>
+        <v>1170</v>
       </c>
       <c r="CR14">
-        <v>156</v>
+        <v>1250</v>
       </c>
       <c r="CS14">
-        <v>151</v>
+        <v>1263</v>
       </c>
       <c r="CT14">
-        <v>86</v>
+        <v>1257</v>
       </c>
       <c r="CU14">
-        <v>123</v>
+        <v>1094</v>
       </c>
       <c r="CV14">
-        <v>188</v>
+        <v>1393</v>
       </c>
       <c r="CW14">
-        <v>140</v>
+        <v>1287</v>
       </c>
       <c r="CX14">
-        <v>146</v>
+        <v>1467</v>
       </c>
       <c r="CY14">
-        <v>113</v>
+        <v>1498</v>
       </c>
       <c r="CZ14">
-        <v>156</v>
+        <v>1320</v>
       </c>
       <c r="DA14">
-        <v>127</v>
+        <v>1540</v>
       </c>
       <c r="DB14">
-        <v>122</v>
+        <v>1136</v>
       </c>
       <c r="DC14">
-        <v>122</v>
+        <v>1456</v>
       </c>
       <c r="DD14">
-        <v>99</v>
+        <v>1393</v>
       </c>
       <c r="DE14">
-        <v>143</v>
+        <v>1540</v>
       </c>
       <c r="DF14">
-        <v>178</v>
+        <v>1540</v>
       </c>
       <c r="DG14">
-        <v>203</v>
+        <v>1644</v>
       </c>
       <c r="DH14">
-        <v>73</v>
+        <v>1302</v>
       </c>
       <c r="DI14">
-        <v>146</v>
+        <v>1448</v>
       </c>
       <c r="DJ14">
-        <v>146</v>
+        <v>1246</v>
       </c>
       <c r="DK14">
-        <v>125</v>
+        <v>1295</v>
       </c>
       <c r="DL14">
-        <v>157</v>
+        <v>1285</v>
       </c>
       <c r="DM14">
-        <v>107</v>
+        <v>1393</v>
       </c>
       <c r="DN14">
-        <v>113</v>
+        <v>1216</v>
       </c>
       <c r="DO14">
-        <v>161</v>
+        <v>1442</v>
       </c>
       <c r="DP14">
-        <v>171</v>
+        <v>1240</v>
       </c>
       <c r="DQ14">
-        <v>66</v>
+        <v>1362</v>
       </c>
       <c r="DR14">
-        <v>73</v>
+        <v>1335</v>
       </c>
       <c r="DS14">
-        <v>195</v>
+        <v>1065</v>
       </c>
       <c r="DT14">
-        <v>125</v>
+        <v>1124</v>
       </c>
       <c r="DU14">
-        <v>74</v>
+        <v>1295</v>
       </c>
       <c r="DV14">
-        <v>171</v>
+        <v>880</v>
       </c>
       <c r="DW14">
-        <v>217</v>
+        <v>1051</v>
       </c>
       <c r="DX14">
-        <v>125</v>
+        <v>1295</v>
       </c>
       <c r="DY14">
-        <v>97</v>
+        <v>1149</v>
       </c>
       <c r="DZ14">
-        <v>146</v>
+        <v>880</v>
       </c>
       <c r="EA14">
-        <v>146</v>
+        <v>1100</v>
       </c>
       <c r="EB14">
-        <v>54</v>
+        <v>904</v>
       </c>
       <c r="EC14">
-        <v>97</v>
+        <v>855</v>
       </c>
       <c r="ED14">
-        <v>103</v>
+        <v>929</v>
       </c>
       <c r="EE14">
-        <v>45</v>
+        <v>938</v>
       </c>
       <c r="EF14">
-        <v>35</v>
+        <v>944</v>
       </c>
       <c r="EG14">
-        <v>56</v>
+        <v>894</v>
       </c>
       <c r="EH14">
-        <v>105</v>
+        <v>872</v>
       </c>
       <c r="EI14">
-        <v>60</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="15" spans="1:141">
@@ -7491,418 +7491,418 @@
         <v>291</v>
       </c>
       <c r="B15">
-        <v>221</v>
+        <v>490</v>
       </c>
       <c r="C15">
-        <v>215</v>
+        <v>563</v>
       </c>
       <c r="D15">
-        <v>199</v>
+        <v>665</v>
       </c>
       <c r="E15">
-        <v>164</v>
+        <v>458</v>
       </c>
       <c r="F15">
-        <v>190</v>
+        <v>531</v>
       </c>
       <c r="G15">
-        <v>213</v>
+        <v>471</v>
       </c>
       <c r="H15">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="I15">
-        <v>202</v>
+        <v>431</v>
       </c>
       <c r="J15">
-        <v>212</v>
+        <v>571</v>
       </c>
       <c r="K15">
-        <v>211</v>
+        <v>439</v>
       </c>
       <c r="L15">
-        <v>198</v>
+        <v>611</v>
       </c>
       <c r="M15">
-        <v>228</v>
+        <v>559</v>
       </c>
       <c r="N15">
-        <v>248</v>
+        <v>662</v>
       </c>
       <c r="O15">
-        <v>212</v>
+        <v>550</v>
       </c>
       <c r="P15">
-        <v>174</v>
+        <v>522</v>
       </c>
       <c r="Q15">
-        <v>238</v>
+        <v>638</v>
       </c>
       <c r="R15">
-        <v>289</v>
+        <v>631</v>
       </c>
       <c r="S15">
-        <v>226</v>
+        <v>635</v>
       </c>
       <c r="T15">
-        <v>216</v>
+        <v>627</v>
       </c>
       <c r="U15">
-        <v>258</v>
+        <v>660</v>
       </c>
       <c r="V15">
-        <v>218</v>
+        <v>562</v>
       </c>
       <c r="W15">
-        <v>239</v>
+        <v>585</v>
       </c>
       <c r="X15">
-        <v>277</v>
+        <v>588</v>
       </c>
       <c r="Y15">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="Z15">
-        <v>254</v>
+        <v>502</v>
       </c>
       <c r="AA15">
-        <v>221</v>
+        <v>539</v>
       </c>
       <c r="AB15">
-        <v>169</v>
+        <v>670</v>
       </c>
       <c r="AC15">
-        <v>190</v>
+        <v>730</v>
       </c>
       <c r="AD15">
-        <v>199</v>
+        <v>633</v>
       </c>
       <c r="AE15">
-        <v>224</v>
+        <v>779</v>
       </c>
       <c r="AF15">
-        <v>164</v>
+        <v>730</v>
       </c>
       <c r="AG15">
-        <v>131</v>
+        <v>778</v>
       </c>
       <c r="AH15">
-        <v>138</v>
+        <v>759</v>
       </c>
       <c r="AI15">
-        <v>169</v>
+        <v>799</v>
       </c>
       <c r="AJ15">
-        <v>199</v>
+        <v>992</v>
       </c>
       <c r="AK15">
-        <v>284</v>
+        <v>867</v>
       </c>
       <c r="AL15">
-        <v>156</v>
+        <v>771</v>
       </c>
       <c r="AM15">
-        <v>218</v>
+        <v>754</v>
       </c>
       <c r="AN15">
-        <v>160</v>
+        <v>794</v>
       </c>
       <c r="AO15">
-        <v>194</v>
+        <v>935</v>
       </c>
       <c r="AP15">
-        <v>164</v>
+        <v>787</v>
       </c>
       <c r="AQ15">
-        <v>145</v>
+        <v>787</v>
       </c>
       <c r="AR15">
-        <v>144</v>
+        <v>1015</v>
       </c>
       <c r="AS15">
-        <v>124</v>
+        <v>898</v>
       </c>
       <c r="AT15">
-        <v>182</v>
+        <v>881</v>
       </c>
       <c r="AU15">
-        <v>134</v>
+        <v>1013</v>
       </c>
       <c r="AV15">
-        <v>180</v>
+        <v>983</v>
       </c>
       <c r="AW15">
-        <v>89</v>
+        <v>1214</v>
       </c>
       <c r="AX15">
-        <v>129</v>
+        <v>1272</v>
       </c>
       <c r="AY15">
-        <v>167</v>
+        <v>1440</v>
       </c>
       <c r="AZ15">
-        <v>118</v>
+        <v>1192</v>
       </c>
       <c r="BA15">
-        <v>191</v>
+        <v>1346</v>
       </c>
       <c r="BB15">
-        <v>153</v>
+        <v>1404</v>
       </c>
       <c r="BC15">
-        <v>114</v>
+        <v>1195</v>
       </c>
       <c r="BD15">
-        <v>179</v>
+        <v>1253</v>
       </c>
       <c r="BE15">
-        <v>159</v>
+        <v>1473</v>
       </c>
       <c r="BF15">
-        <v>150</v>
+        <v>1408</v>
       </c>
       <c r="BG15">
-        <v>110</v>
+        <v>1623</v>
       </c>
       <c r="BH15">
-        <v>207</v>
+        <v>1395</v>
       </c>
       <c r="BI15">
-        <v>130</v>
+        <v>1461</v>
       </c>
       <c r="BJ15">
-        <v>165</v>
+        <v>1576</v>
       </c>
       <c r="BK15">
-        <v>205</v>
+        <v>1718</v>
       </c>
       <c r="BL15">
-        <v>182</v>
+        <v>1607</v>
       </c>
       <c r="BM15">
-        <v>159</v>
+        <v>1705</v>
       </c>
       <c r="BN15">
-        <v>78</v>
+        <v>1229</v>
       </c>
       <c r="BO15">
-        <v>116</v>
+        <v>1296</v>
       </c>
       <c r="BP15">
-        <v>113</v>
+        <v>1696</v>
       </c>
       <c r="BQ15">
-        <v>162</v>
+        <v>1418</v>
       </c>
       <c r="BR15">
-        <v>113</v>
+        <v>1662</v>
       </c>
       <c r="BS15">
-        <v>195</v>
+        <v>1344</v>
       </c>
       <c r="BT15">
-        <v>156</v>
+        <v>1467</v>
       </c>
       <c r="BU15">
-        <v>208</v>
+        <v>1173</v>
       </c>
       <c r="BV15">
-        <v>53</v>
+        <v>1491</v>
       </c>
       <c r="BW15">
-        <v>177</v>
+        <v>1121</v>
       </c>
       <c r="BX15">
-        <v>77</v>
+        <v>1151</v>
       </c>
       <c r="BY15">
-        <v>92</v>
+        <v>953</v>
       </c>
       <c r="BZ15">
-        <v>123</v>
+        <v>1208</v>
       </c>
       <c r="CA15">
-        <v>217</v>
+        <v>1164</v>
       </c>
       <c r="CB15">
-        <v>113</v>
+        <v>1349</v>
       </c>
       <c r="CC15">
-        <v>107</v>
+        <v>1165</v>
       </c>
       <c r="CD15">
-        <v>193</v>
+        <v>1134</v>
       </c>
       <c r="CE15">
-        <v>76</v>
+        <v>953</v>
       </c>
       <c r="CF15">
-        <v>129</v>
+        <v>921</v>
       </c>
       <c r="CG15">
-        <v>57</v>
+        <v>1187</v>
       </c>
       <c r="CH15">
-        <v>97</v>
+        <v>1255</v>
       </c>
       <c r="CI15">
-        <v>122</v>
+        <v>979</v>
       </c>
       <c r="CJ15">
-        <v>134</v>
+        <v>1156</v>
       </c>
       <c r="CK15">
-        <v>91</v>
+        <v>1002</v>
       </c>
       <c r="CL15">
-        <v>115</v>
+        <v>958</v>
       </c>
       <c r="CM15">
-        <v>125</v>
+        <v>1024</v>
       </c>
       <c r="CN15">
-        <v>175</v>
+        <v>1080</v>
       </c>
       <c r="CO15">
-        <v>114</v>
+        <v>983</v>
       </c>
       <c r="CP15">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="CQ15">
-        <v>97</v>
+        <v>1107</v>
       </c>
       <c r="CR15">
-        <v>108</v>
+        <v>1034</v>
       </c>
       <c r="CS15">
-        <v>122</v>
+        <v>1008</v>
       </c>
       <c r="CT15">
-        <v>54</v>
+        <v>1015</v>
       </c>
       <c r="CU15">
-        <v>76</v>
+        <v>1122</v>
       </c>
       <c r="CV15">
-        <v>95</v>
+        <v>1191</v>
       </c>
       <c r="CW15">
-        <v>115</v>
+        <v>1052</v>
       </c>
       <c r="CX15">
-        <v>95</v>
+        <v>1190</v>
       </c>
       <c r="CY15">
-        <v>102</v>
+        <v>1072</v>
       </c>
       <c r="CZ15">
-        <v>146</v>
+        <v>1036</v>
       </c>
       <c r="DA15">
-        <v>146</v>
+        <v>1222</v>
       </c>
       <c r="DB15">
-        <v>117</v>
+        <v>1237</v>
       </c>
       <c r="DC15">
-        <v>172</v>
+        <v>1315</v>
       </c>
       <c r="DD15">
-        <v>121</v>
+        <v>1245</v>
       </c>
       <c r="DE15">
-        <v>85</v>
+        <v>1244</v>
       </c>
       <c r="DF15">
-        <v>97</v>
+        <v>1244</v>
       </c>
       <c r="DG15">
-        <v>96</v>
+        <v>1342</v>
       </c>
       <c r="DH15">
-        <v>60</v>
+        <v>1316</v>
       </c>
       <c r="DI15">
-        <v>91</v>
+        <v>1470</v>
       </c>
       <c r="DJ15">
-        <v>135</v>
+        <v>1638</v>
       </c>
       <c r="DK15">
-        <v>99</v>
+        <v>1290</v>
       </c>
       <c r="DL15">
-        <v>97</v>
+        <v>1426</v>
       </c>
       <c r="DM15">
-        <v>88</v>
+        <v>1395</v>
       </c>
       <c r="DN15">
-        <v>129</v>
+        <v>1447</v>
       </c>
       <c r="DO15">
-        <v>87</v>
+        <v>1539</v>
       </c>
       <c r="DP15">
-        <v>99</v>
+        <v>1503</v>
       </c>
       <c r="DQ15">
-        <v>85</v>
+        <v>1414</v>
       </c>
       <c r="DR15">
-        <v>76</v>
+        <v>1577</v>
       </c>
       <c r="DS15">
-        <v>83</v>
+        <v>1844</v>
       </c>
       <c r="DT15">
-        <v>74</v>
+        <v>1702</v>
       </c>
       <c r="DU15">
-        <v>73</v>
+        <v>1787</v>
       </c>
       <c r="DV15">
-        <v>58</v>
+        <v>1903</v>
       </c>
       <c r="DW15">
-        <v>76</v>
+        <v>1859</v>
       </c>
       <c r="DX15">
-        <v>50</v>
+        <v>2241</v>
       </c>
       <c r="DY15">
-        <v>93</v>
+        <v>1792</v>
       </c>
       <c r="DZ15">
-        <v>48</v>
+        <v>2057</v>
       </c>
       <c r="EA15">
-        <v>91</v>
+        <v>1779</v>
       </c>
       <c r="EB15">
-        <v>104</v>
+        <v>2130</v>
       </c>
       <c r="EC15">
-        <v>48</v>
+        <v>1745</v>
       </c>
       <c r="ED15">
-        <v>45</v>
+        <v>2052</v>
       </c>
       <c r="EE15">
-        <v>73</v>
+        <v>1765</v>
       </c>
       <c r="EF15">
-        <v>58</v>
+        <v>1992</v>
       </c>
       <c r="EG15">
-        <v>73</v>
+        <v>2032</v>
       </c>
       <c r="EH15">
-        <v>49</v>
+        <v>1694</v>
       </c>
       <c r="EI15">
-        <v>97</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="16" spans="1:141">
@@ -7910,418 +7910,418 @@
         <v>292</v>
       </c>
       <c r="B16">
-        <v>221</v>
+        <v>490</v>
       </c>
       <c r="C16">
-        <v>218</v>
+        <v>530</v>
       </c>
       <c r="D16">
-        <v>278</v>
+        <v>521</v>
       </c>
       <c r="E16">
-        <v>158</v>
+        <v>512</v>
       </c>
       <c r="F16">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="G16">
-        <v>324</v>
+        <v>491</v>
       </c>
       <c r="H16">
-        <v>232</v>
+        <v>550</v>
       </c>
       <c r="I16">
-        <v>298</v>
+        <v>589</v>
       </c>
       <c r="J16">
-        <v>273</v>
+        <v>586</v>
       </c>
       <c r="K16">
-        <v>278</v>
+        <v>570</v>
       </c>
       <c r="L16">
-        <v>206</v>
+        <v>703</v>
       </c>
       <c r="M16">
-        <v>358</v>
+        <v>608</v>
       </c>
       <c r="N16">
-        <v>247</v>
+        <v>640</v>
       </c>
       <c r="O16">
-        <v>291</v>
+        <v>724</v>
       </c>
       <c r="P16">
-        <v>239</v>
+        <v>612</v>
       </c>
       <c r="Q16">
-        <v>207</v>
+        <v>561</v>
       </c>
       <c r="R16">
-        <v>222</v>
+        <v>749</v>
       </c>
       <c r="S16">
-        <v>255</v>
+        <v>670</v>
       </c>
       <c r="T16">
-        <v>285</v>
+        <v>892</v>
       </c>
       <c r="U16">
-        <v>288</v>
+        <v>816</v>
       </c>
       <c r="V16">
-        <v>141</v>
+        <v>752</v>
       </c>
       <c r="W16">
-        <v>275</v>
+        <v>833</v>
       </c>
       <c r="X16">
-        <v>318</v>
+        <v>813</v>
       </c>
       <c r="Y16">
-        <v>252</v>
+        <v>987</v>
       </c>
       <c r="Z16">
-        <v>273</v>
+        <v>1047</v>
       </c>
       <c r="AA16">
-        <v>294</v>
+        <v>1036</v>
       </c>
       <c r="AB16">
-        <v>264</v>
+        <v>989</v>
       </c>
       <c r="AC16">
-        <v>342</v>
+        <v>1040</v>
       </c>
       <c r="AD16">
-        <v>194</v>
+        <v>1042</v>
       </c>
       <c r="AE16">
-        <v>261</v>
+        <v>1195</v>
       </c>
       <c r="AF16">
-        <v>226</v>
+        <v>1361</v>
       </c>
       <c r="AG16">
-        <v>167</v>
+        <v>1192</v>
       </c>
       <c r="AH16">
-        <v>301</v>
+        <v>1033</v>
       </c>
       <c r="AI16">
-        <v>258</v>
+        <v>1467</v>
       </c>
       <c r="AJ16">
-        <v>216</v>
+        <v>1036</v>
       </c>
       <c r="AK16">
-        <v>298</v>
+        <v>1183</v>
       </c>
       <c r="AL16">
-        <v>274</v>
+        <v>1494</v>
       </c>
       <c r="AM16">
-        <v>294</v>
+        <v>1458</v>
       </c>
       <c r="AN16">
-        <v>226</v>
+        <v>1642</v>
       </c>
       <c r="AO16">
-        <v>267</v>
+        <v>1488</v>
       </c>
       <c r="AP16">
-        <v>233</v>
+        <v>1882</v>
       </c>
       <c r="AQ16">
-        <v>279</v>
+        <v>1649</v>
       </c>
       <c r="AR16">
-        <v>228</v>
+        <v>1694</v>
       </c>
       <c r="AS16">
-        <v>277</v>
+        <v>1883</v>
       </c>
       <c r="AT16">
-        <v>211</v>
+        <v>1820</v>
       </c>
       <c r="AU16">
-        <v>280</v>
+        <v>2005</v>
       </c>
       <c r="AV16">
-        <v>260</v>
+        <v>1965</v>
       </c>
       <c r="AW16">
-        <v>268</v>
+        <v>2096</v>
       </c>
       <c r="AX16">
-        <v>292</v>
+        <v>2048</v>
       </c>
       <c r="AY16">
-        <v>318</v>
+        <v>2326</v>
       </c>
       <c r="AZ16">
-        <v>291</v>
+        <v>2158</v>
       </c>
       <c r="BA16">
-        <v>363</v>
+        <v>1965</v>
       </c>
       <c r="BB16">
-        <v>354</v>
+        <v>1885</v>
       </c>
       <c r="BC16">
-        <v>345</v>
+        <v>1956</v>
       </c>
       <c r="BD16">
-        <v>302</v>
+        <v>2392</v>
       </c>
       <c r="BE16">
-        <v>325</v>
+        <v>2362</v>
       </c>
       <c r="BF16">
-        <v>360</v>
+        <v>1758</v>
       </c>
       <c r="BG16">
-        <v>436</v>
+        <v>2236</v>
       </c>
       <c r="BH16">
-        <v>371</v>
+        <v>2264</v>
       </c>
       <c r="BI16">
-        <v>311</v>
+        <v>2378</v>
       </c>
       <c r="BJ16">
-        <v>374</v>
+        <v>2441</v>
       </c>
       <c r="BK16">
-        <v>402</v>
+        <v>2004</v>
       </c>
       <c r="BL16">
-        <v>328</v>
+        <v>2223</v>
       </c>
       <c r="BM16">
-        <v>263</v>
+        <v>2298</v>
       </c>
       <c r="BN16">
-        <v>328</v>
+        <v>1882</v>
       </c>
       <c r="BO16">
-        <v>356</v>
+        <v>2298</v>
       </c>
       <c r="BP16">
-        <v>233</v>
+        <v>1950</v>
       </c>
       <c r="BQ16">
-        <v>265</v>
+        <v>1959</v>
       </c>
       <c r="BR16">
-        <v>398</v>
+        <v>1755</v>
       </c>
       <c r="BS16">
-        <v>307</v>
+        <v>1665</v>
       </c>
       <c r="BT16">
-        <v>309</v>
+        <v>1747</v>
       </c>
       <c r="BU16">
-        <v>400</v>
+        <v>1665</v>
       </c>
       <c r="BV16">
-        <v>316</v>
+        <v>1592</v>
       </c>
       <c r="BW16">
-        <v>387</v>
+        <v>1909</v>
       </c>
       <c r="BX16">
-        <v>364</v>
+        <v>1863</v>
       </c>
       <c r="BY16">
-        <v>298</v>
+        <v>1907</v>
       </c>
       <c r="BZ16">
-        <v>415</v>
+        <v>1869</v>
       </c>
       <c r="CA16">
-        <v>293</v>
+        <v>1783</v>
       </c>
       <c r="CB16">
-        <v>265</v>
+        <v>1914</v>
       </c>
       <c r="CC16">
-        <v>198</v>
+        <v>1798</v>
       </c>
       <c r="CD16">
-        <v>260</v>
+        <v>1932</v>
       </c>
       <c r="CE16">
-        <v>322</v>
+        <v>1638</v>
       </c>
       <c r="CF16">
-        <v>391</v>
+        <v>1778</v>
       </c>
       <c r="CG16">
-        <v>322</v>
+        <v>1713</v>
       </c>
       <c r="CH16">
-        <v>268</v>
+        <v>1784</v>
       </c>
       <c r="CI16">
-        <v>245</v>
+        <v>1821</v>
       </c>
       <c r="CJ16">
-        <v>268</v>
+        <v>1991</v>
       </c>
       <c r="CK16">
-        <v>199</v>
+        <v>2136</v>
       </c>
       <c r="CL16">
-        <v>195</v>
+        <v>2123</v>
       </c>
       <c r="CM16">
-        <v>146</v>
+        <v>1917</v>
       </c>
       <c r="CN16">
-        <v>317</v>
+        <v>2108</v>
       </c>
       <c r="CO16">
-        <v>293</v>
+        <v>2156</v>
       </c>
       <c r="CP16">
-        <v>293</v>
+        <v>2297</v>
       </c>
       <c r="CQ16">
-        <v>220</v>
+        <v>1992</v>
       </c>
       <c r="CR16">
-        <v>220</v>
+        <v>2216</v>
       </c>
       <c r="CS16">
-        <v>122</v>
+        <v>2420</v>
       </c>
       <c r="CT16">
-        <v>195</v>
+        <v>2377</v>
       </c>
       <c r="CU16">
-        <v>146</v>
+        <v>2950</v>
       </c>
       <c r="CV16">
-        <v>146</v>
+        <v>2959</v>
       </c>
       <c r="CW16">
-        <v>244</v>
+        <v>2834</v>
       </c>
       <c r="CX16">
-        <v>97</v>
+        <v>3343</v>
       </c>
       <c r="CY16">
-        <v>163</v>
+        <v>2763</v>
       </c>
       <c r="CZ16">
-        <v>195</v>
+        <v>2861</v>
       </c>
       <c r="DA16">
-        <v>105</v>
+        <v>2800</v>
       </c>
       <c r="DB16">
-        <v>171</v>
+        <v>2974</v>
       </c>
       <c r="DC16">
-        <v>132</v>
+        <v>2599</v>
       </c>
       <c r="DD16">
-        <v>218</v>
+        <v>2824</v>
       </c>
       <c r="DE16">
-        <v>84</v>
+        <v>2563</v>
       </c>
       <c r="DF16">
-        <v>68</v>
+        <v>2854</v>
       </c>
       <c r="DG16">
-        <v>138</v>
+        <v>2982</v>
       </c>
       <c r="DH16">
-        <v>198</v>
+        <v>2958</v>
       </c>
       <c r="DI16">
-        <v>115</v>
+        <v>2762</v>
       </c>
       <c r="DJ16">
-        <v>149</v>
+        <v>2811</v>
       </c>
       <c r="DK16">
-        <v>119</v>
+        <v>2616</v>
       </c>
       <c r="DL16">
-        <v>122</v>
+        <v>2713</v>
       </c>
       <c r="DM16">
-        <v>136</v>
+        <v>2860</v>
       </c>
       <c r="DN16">
-        <v>139</v>
+        <v>2518</v>
       </c>
       <c r="DO16">
-        <v>146</v>
+        <v>2127</v>
       </c>
       <c r="DP16">
-        <v>120</v>
+        <v>2127</v>
       </c>
       <c r="DQ16">
-        <v>146</v>
+        <v>2371</v>
       </c>
       <c r="DR16">
-        <v>87</v>
+        <v>2102</v>
       </c>
       <c r="DS16">
-        <v>135</v>
+        <v>2469</v>
       </c>
       <c r="DT16">
-        <v>93</v>
+        <v>2322</v>
       </c>
       <c r="DU16">
-        <v>92</v>
+        <v>2004</v>
       </c>
       <c r="DV16">
-        <v>90</v>
+        <v>1418</v>
       </c>
       <c r="DW16">
-        <v>111</v>
+        <v>1540</v>
       </c>
       <c r="DX16">
-        <v>94</v>
+        <v>1687</v>
       </c>
       <c r="DY16">
-        <v>91</v>
+        <v>1467</v>
       </c>
       <c r="DZ16">
-        <v>108</v>
+        <v>1393</v>
       </c>
       <c r="EA16">
-        <v>104</v>
+        <v>1344</v>
       </c>
       <c r="EB16">
-        <v>100</v>
+        <v>1344</v>
       </c>
       <c r="EC16">
-        <v>100</v>
+        <v>1198</v>
       </c>
       <c r="ED16">
-        <v>113</v>
+        <v>904</v>
       </c>
       <c r="EE16">
-        <v>99</v>
+        <v>978</v>
       </c>
       <c r="EF16">
-        <v>98</v>
+        <v>953</v>
       </c>
       <c r="EG16">
-        <v>150</v>
+        <v>1051</v>
       </c>
       <c r="EH16">
-        <v>100</v>
+        <v>806</v>
       </c>
       <c r="EI16">
-        <v>132</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:139">
@@ -8329,415 +8329,415 @@
         <v>293</v>
       </c>
       <c r="B17">
-        <v>221</v>
+        <v>490</v>
       </c>
       <c r="C17">
-        <v>234</v>
+        <v>606</v>
       </c>
       <c r="D17">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="E17">
-        <v>203</v>
+        <v>457</v>
       </c>
       <c r="F17">
-        <v>229</v>
+        <v>528</v>
       </c>
       <c r="G17">
-        <v>241</v>
+        <v>513</v>
       </c>
       <c r="H17">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="I17">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="J17">
-        <v>206</v>
+        <v>398</v>
       </c>
       <c r="K17">
-        <v>235</v>
+        <v>405</v>
       </c>
       <c r="L17">
+        <v>364</v>
+      </c>
+      <c r="M17">
+        <v>409</v>
+      </c>
+      <c r="N17">
+        <v>469</v>
+      </c>
+      <c r="O17">
+        <v>386</v>
+      </c>
+      <c r="P17">
+        <v>288</v>
+      </c>
+      <c r="Q17">
+        <v>466</v>
+      </c>
+      <c r="R17">
+        <v>345</v>
+      </c>
+      <c r="S17">
+        <v>369</v>
+      </c>
+      <c r="T17">
+        <v>308</v>
+      </c>
+      <c r="U17">
+        <v>282</v>
+      </c>
+      <c r="V17">
+        <v>301</v>
+      </c>
+      <c r="W17">
+        <v>220</v>
+      </c>
+      <c r="X17">
+        <v>286</v>
+      </c>
+      <c r="Y17">
+        <v>227</v>
+      </c>
+      <c r="Z17">
+        <v>178</v>
+      </c>
+      <c r="AA17">
+        <v>256</v>
+      </c>
+      <c r="AB17">
+        <v>224</v>
+      </c>
+      <c r="AC17">
+        <v>216</v>
+      </c>
+      <c r="AD17">
+        <v>147</v>
+      </c>
+      <c r="AE17">
+        <v>205</v>
+      </c>
+      <c r="AF17">
+        <v>166</v>
+      </c>
+      <c r="AG17">
+        <v>190</v>
+      </c>
+      <c r="AH17">
+        <v>172</v>
+      </c>
+      <c r="AI17">
+        <v>150</v>
+      </c>
+      <c r="AJ17">
+        <v>202</v>
+      </c>
+      <c r="AK17">
         <v>183</v>
       </c>
-      <c r="M17">
+      <c r="AL17">
         <v>125</v>
       </c>
-      <c r="N17">
-        <v>232</v>
-      </c>
-      <c r="O17">
-        <v>191</v>
-      </c>
-      <c r="P17">
-        <v>206</v>
-      </c>
-      <c r="Q17">
-        <v>141</v>
-      </c>
-      <c r="R17">
-        <v>205</v>
-      </c>
-      <c r="S17">
-        <v>170</v>
-      </c>
-      <c r="T17">
-        <v>235</v>
-      </c>
-      <c r="U17">
-        <v>153</v>
-      </c>
-      <c r="V17">
-        <v>182</v>
-      </c>
-      <c r="W17">
-        <v>226</v>
-      </c>
-      <c r="X17">
-        <v>119</v>
-      </c>
-      <c r="Y17">
-        <v>65</v>
-      </c>
-      <c r="Z17">
+      <c r="AM17">
+        <v>177</v>
+      </c>
+      <c r="AN17">
+        <v>186</v>
+      </c>
+      <c r="AO17">
+        <v>185</v>
+      </c>
+      <c r="AP17">
         <v>97</v>
       </c>
-      <c r="AA17">
+      <c r="AQ17">
+        <v>95</v>
+      </c>
+      <c r="AR17">
+        <v>134</v>
+      </c>
+      <c r="AS17">
+        <v>161</v>
+      </c>
+      <c r="AT17">
+        <v>137</v>
+      </c>
+      <c r="AU17">
+        <v>77</v>
+      </c>
+      <c r="AV17">
+        <v>114</v>
+      </c>
+      <c r="AW17">
+        <v>136</v>
+      </c>
+      <c r="AX17">
+        <v>130</v>
+      </c>
+      <c r="AY17">
+        <v>96</v>
+      </c>
+      <c r="AZ17">
+        <v>110</v>
+      </c>
+      <c r="BA17">
+        <v>111</v>
+      </c>
+      <c r="BB17">
+        <v>139</v>
+      </c>
+      <c r="BC17">
+        <v>58</v>
+      </c>
+      <c r="BD17">
+        <v>127</v>
+      </c>
+      <c r="BE17">
+        <v>61</v>
+      </c>
+      <c r="BF17">
+        <v>73</v>
+      </c>
+      <c r="BG17">
+        <v>92</v>
+      </c>
+      <c r="BH17">
+        <v>81</v>
+      </c>
+      <c r="BI17">
+        <v>112</v>
+      </c>
+      <c r="BJ17">
+        <v>143</v>
+      </c>
+      <c r="BK17">
+        <v>78</v>
+      </c>
+      <c r="BL17">
+        <v>53</v>
+      </c>
+      <c r="BM17">
+        <v>91</v>
+      </c>
+      <c r="BN17">
+        <v>95</v>
+      </c>
+      <c r="BO17">
+        <v>51</v>
+      </c>
+      <c r="BP17">
+        <v>77</v>
+      </c>
+      <c r="BQ17">
+        <v>70</v>
+      </c>
+      <c r="BR17">
+        <v>53</v>
+      </c>
+      <c r="BS17">
+        <v>62</v>
+      </c>
+      <c r="BT17">
+        <v>41</v>
+      </c>
+      <c r="BU17">
         <v>86</v>
       </c>
-      <c r="AB17">
-        <v>110</v>
-      </c>
-      <c r="AC17">
-        <v>104</v>
-      </c>
-      <c r="AD17">
-        <v>146</v>
-      </c>
-      <c r="AE17">
-        <v>97</v>
-      </c>
-      <c r="AF17">
-        <v>160</v>
-      </c>
-      <c r="AG17">
-        <v>138</v>
-      </c>
-      <c r="AH17">
-        <v>125</v>
-      </c>
-      <c r="AI17">
-        <v>91</v>
-      </c>
-      <c r="AJ17">
-        <v>108</v>
-      </c>
-      <c r="AK17">
-        <v>50</v>
-      </c>
-      <c r="AL17">
-        <v>143</v>
-      </c>
-      <c r="AM17">
-        <v>93</v>
-      </c>
-      <c r="AN17">
-        <v>89</v>
-      </c>
-      <c r="AO17">
-        <v>103</v>
-      </c>
-      <c r="AP17">
-        <v>69</v>
-      </c>
-      <c r="AQ17">
-        <v>65</v>
-      </c>
-      <c r="AR17">
-        <v>118</v>
-      </c>
-      <c r="AS17">
-        <v>70</v>
-      </c>
-      <c r="AT17">
-        <v>50</v>
-      </c>
-      <c r="AU17">
+      <c r="BV17">
+        <v>94</v>
+      </c>
+      <c r="BW17">
+        <v>62</v>
+      </c>
+      <c r="BX17">
         <v>46</v>
       </c>
-      <c r="AV17">
-        <v>157</v>
-      </c>
-      <c r="AW17">
-        <v>104</v>
-      </c>
-      <c r="AX17">
-        <v>72</v>
-      </c>
-      <c r="AY17">
-        <v>68</v>
-      </c>
-      <c r="AZ17">
-        <v>65</v>
-      </c>
-      <c r="BA17">
+      <c r="BY17">
+        <v>26</v>
+      </c>
+      <c r="BZ17">
         <v>46</v>
       </c>
-      <c r="BB17">
-        <v>49</v>
-      </c>
-      <c r="BC17">
-        <v>46</v>
-      </c>
-      <c r="BD17">
-        <v>86</v>
-      </c>
-      <c r="BE17">
-        <v>64</v>
-      </c>
-      <c r="BF17">
-        <v>57</v>
-      </c>
-      <c r="BG17">
-        <v>42</v>
-      </c>
-      <c r="BH17">
-        <v>44</v>
-      </c>
-      <c r="BI17">
-        <v>38</v>
-      </c>
-      <c r="BJ17">
-        <v>48</v>
-      </c>
-      <c r="BK17">
-        <v>29</v>
-      </c>
-      <c r="BL17">
-        <v>57</v>
-      </c>
-      <c r="BM17">
-        <v>54</v>
-      </c>
-      <c r="BN17">
+      <c r="CA17">
+        <v>47</v>
+      </c>
+      <c r="CB17">
+        <v>47</v>
+      </c>
+      <c r="CC17">
         <v>45</v>
-      </c>
-      <c r="BO17">
-        <v>33</v>
-      </c>
-      <c r="BP17">
-        <v>27</v>
-      </c>
-      <c r="BQ17">
-        <v>31</v>
-      </c>
-      <c r="BR17">
-        <v>56</v>
-      </c>
-      <c r="BS17">
-        <v>53</v>
-      </c>
-      <c r="BT17">
-        <v>53</v>
-      </c>
-      <c r="BU17">
-        <v>28</v>
-      </c>
-      <c r="BV17">
-        <v>57</v>
-      </c>
-      <c r="BW17">
-        <v>5</v>
-      </c>
-      <c r="BX17">
-        <v>44</v>
-      </c>
-      <c r="BY17">
-        <v>43</v>
-      </c>
-      <c r="BZ17">
-        <v>33</v>
-      </c>
-      <c r="CA17">
-        <v>42</v>
-      </c>
-      <c r="CB17">
-        <v>48</v>
-      </c>
-      <c r="CC17">
-        <v>36</v>
       </c>
       <c r="CD17">
         <v>48</v>
       </c>
       <c r="CE17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="CF17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="CG17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="CH17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CI17">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="CJ17">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="CK17">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="CL17">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="CM17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="CN17">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="CO17">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="CP17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="CQ17">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="CR17">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="CS17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CT17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CU17">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="CV17">
         <v>29</v>
       </c>
       <c r="CW17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CX17">
+        <v>13</v>
+      </c>
+      <c r="CY17">
         <v>21</v>
       </c>
-      <c r="CY17">
+      <c r="CZ17">
+        <v>28</v>
+      </c>
+      <c r="DA17">
+        <v>32</v>
+      </c>
+      <c r="DB17">
+        <v>20</v>
+      </c>
+      <c r="DC17">
+        <v>7</v>
+      </c>
+      <c r="DD17">
+        <v>7</v>
+      </c>
+      <c r="DE17">
+        <v>19</v>
+      </c>
+      <c r="DF17">
+        <v>24</v>
+      </c>
+      <c r="DG17">
+        <v>28</v>
+      </c>
+      <c r="DH17">
+        <v>40</v>
+      </c>
+      <c r="DI17">
+        <v>28</v>
+      </c>
+      <c r="DJ17">
+        <v>4</v>
+      </c>
+      <c r="DK17">
+        <v>21</v>
+      </c>
+      <c r="DL17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>18</v>
+      </c>
+      <c r="DN17">
+        <v>7</v>
+      </c>
+      <c r="DO17">
+        <v>10</v>
+      </c>
+      <c r="DP17">
+        <v>0</v>
+      </c>
+      <c r="DQ17">
+        <v>35</v>
+      </c>
+      <c r="DR17">
         <v>13</v>
       </c>
-      <c r="CZ17">
-        <v>43</v>
-      </c>
-      <c r="DA17">
-        <v>43</v>
-      </c>
-      <c r="DB17">
-        <v>39</v>
-      </c>
-      <c r="DC17">
-        <v>12</v>
-      </c>
-      <c r="DD17">
-        <v>55</v>
-      </c>
-      <c r="DE17">
-        <v>22</v>
-      </c>
-      <c r="DF17">
-        <v>12</v>
-      </c>
-      <c r="DG17">
-        <v>43</v>
-      </c>
-      <c r="DH17">
-        <v>60</v>
-      </c>
-      <c r="DI17">
+      <c r="DS17">
+        <v>13</v>
+      </c>
+      <c r="DT17">
         <v>15</v>
       </c>
-      <c r="DJ17">
-        <v>23</v>
-      </c>
-      <c r="DK17">
-        <v>35</v>
-      </c>
-      <c r="DL17">
-        <v>12</v>
-      </c>
-      <c r="DM17">
-        <v>20</v>
-      </c>
-      <c r="DN17">
-        <v>49</v>
-      </c>
-      <c r="DO17">
-        <v>14</v>
-      </c>
-      <c r="DP17">
-        <v>15</v>
-      </c>
-      <c r="DQ17">
-        <v>46</v>
-      </c>
-      <c r="DR17">
-        <v>44</v>
-      </c>
-      <c r="DS17">
-        <v>15</v>
-      </c>
-      <c r="DT17">
-        <v>33</v>
-      </c>
       <c r="DU17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="DV17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DW17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="DX17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="DY17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DZ17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="EA17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="EB17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EC17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="ED17">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="EE17">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="EF17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="EG17">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="EH17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="EI17">
         <v>0</v>
